--- a/Output/Logit_models_svy.xlsx
+++ b/Output/Logit_models_svy.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="svy_food_insecurity_binary__" sheetId="1" r:id="rId1"/>
-    <sheet name="svy_food_insecurity_binary___1" sheetId="2" r:id="rId2"/>
-    <sheet name="svy_food_insecurity_binary___2" sheetId="3" r:id="rId3"/>
-    <sheet name="svy_food_insecurity_binary___3" sheetId="4" r:id="rId4"/>
-    <sheet name="svy_food_insecurity_binary___4" sheetId="5" r:id="rId5"/>
-    <sheet name="svy_food_ins1__ind_overcrowd" sheetId="6" r:id="rId6"/>
-    <sheet name="svy_food_ins1__overcrowded" sheetId="7" r:id="rId7"/>
-    <sheet name="svy_food_ins1__ind_overcrowd_1" sheetId="8" r:id="rId8"/>
-    <sheet name="svy_food_ins1__overcrowding" sheetId="9" r:id="rId9"/>
-    <sheet name="svy_food_ins1__overcrowding_" sheetId="10" r:id="rId10"/>
+    <sheet name="svy_food_insecurity_binary_~" sheetId="1" r:id="rId1"/>
+    <sheet name="svy_food_insecurity_binary_~_1" sheetId="2" r:id="rId2"/>
+    <sheet name="svy_food_insecurity_binary_~_2" sheetId="3" r:id="rId3"/>
+    <sheet name="svy_food_insecurity_binary_~_3" sheetId="4" r:id="rId4"/>
+    <sheet name="svy_food_insecurity_binary_~_4" sheetId="5" r:id="rId5"/>
+    <sheet name="svy_food_ins1_~_ind_overcrow" sheetId="6" r:id="rId6"/>
+    <sheet name="svy_food_ins1_~_overcrowded" sheetId="7" r:id="rId7"/>
+    <sheet name="svy_food_ins1_~_ind_overcrow_1" sheetId="8" r:id="rId8"/>
+    <sheet name="svy_food_ins1_~_overcrowding" sheetId="9" r:id="rId9"/>
+    <sheet name="svy_food_ins1_~_overcrowding_1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,20 +384,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -416,15 +411,12 @@
         <v>0.08039590262851673</v>
       </c>
       <c r="D2">
-        <v>3.236788429131486</v>
+        <v>1.003327459825272</v>
       </c>
       <c r="E2">
-        <v>2.727341867134979</v>
+        <v>1.37506648625856</v>
       </c>
       <c r="F2">
-        <v>3.955339689915951</v>
-      </c>
-      <c r="G2">
         <v>0.04536309101688359</v>
       </c>
     </row>
@@ -441,15 +433,12 @@
         <v>0.0343908283790377</v>
       </c>
       <c r="D3">
-        <v>3.580896014536343</v>
+        <v>1.192455744312224</v>
       </c>
       <c r="E3">
-        <v>3.295163358148114</v>
+        <v>1.364569433655323</v>
       </c>
       <c r="F3">
-        <v>3.914037436342183</v>
-      </c>
-      <c r="G3">
         <v>1.546993886621114E-12</v>
       </c>
     </row>
@@ -466,15 +455,12 @@
         <v>0.1203221903134314</v>
       </c>
       <c r="D4">
-        <v>2.537921939823951</v>
+        <v>0.7356671929969177</v>
       </c>
       <c r="E4">
-        <v>2.086873875761373</v>
+        <v>1.17907208274606</v>
       </c>
       <c r="F4">
-        <v>3.251355813540389</v>
-      </c>
-      <c r="G4">
         <v>0.5544519804608778</v>
       </c>
     </row>
@@ -491,15 +477,12 @@
         <v>0.1204053579873929</v>
       </c>
       <c r="D5">
-        <v>2.477890529235915</v>
+        <v>0.7166417919731937</v>
       </c>
       <c r="E5">
-        <v>2.04754556808661</v>
+        <v>1.148954151345796</v>
       </c>
       <c r="F5">
-        <v>3.154891644498242</v>
-      </c>
-      <c r="G5">
         <v>0.4197007827762288</v>
       </c>
     </row>
@@ -516,15 +499,12 @@
         <v>0.1263597167804824</v>
       </c>
       <c r="D6">
-        <v>1.547933370342789</v>
+        <v>0.3410621004935419</v>
       </c>
       <c r="E6">
-        <v>1.406440578804357</v>
+        <v>0.5597213106468429</v>
       </c>
       <c r="F6">
-        <v>1.75018467448849</v>
-      </c>
-      <c r="G6">
         <v>5.896159768146762E-11</v>
       </c>
     </row>
@@ -541,15 +521,12 @@
         <v>0.04717912948538228</v>
       </c>
       <c r="D7">
-        <v>2.238807844812464</v>
+        <v>0.734752924006238</v>
       </c>
       <c r="E7">
-        <v>2.084966783619751</v>
+        <v>0.8840317927298748</v>
       </c>
       <c r="F7">
-        <v>2.420639575699334</v>
-      </c>
-      <c r="G7">
         <v>4.863557520880325E-06</v>
       </c>
     </row>
@@ -566,15 +543,12 @@
         <v>0.06963357175955545</v>
       </c>
       <c r="D8">
-        <v>5.133309369874825</v>
+        <v>1.427047658233763</v>
       </c>
       <c r="E8">
-        <v>4.166380437305125</v>
+        <v>1.874975831871071</v>
       </c>
       <c r="F8">
-        <v>6.520661526237271</v>
-      </c>
-      <c r="G8">
         <v>1.676856056278831E-12</v>
       </c>
     </row>
@@ -591,15 +565,12 @@
         <v>0.0731455422103677</v>
       </c>
       <c r="D9">
-        <v>4.168817775279346</v>
+        <v>1.2369384991795</v>
       </c>
       <c r="E9">
-        <v>3.445050279156213</v>
+        <v>1.647725027184114</v>
       </c>
       <c r="F9">
-        <v>5.195147553773482</v>
-      </c>
-      <c r="G9">
         <v>1.14704148412344E-06</v>
       </c>
     </row>
@@ -616,22 +587,19 @@
         <v>0.04077058059935217</v>
       </c>
       <c r="D10">
-        <v>2.562043814123915</v>
+        <v>0.8685444156855606</v>
       </c>
       <c r="E10">
-        <v>2.383439030904182</v>
+        <v>1.019078133101439</v>
       </c>
       <c r="F10">
-        <v>2.770639425530063</v>
-      </c>
-      <c r="G10">
         <v>0.1345139254987797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -641,22 +609,19 @@
         <v>0.03866951982579265</v>
       </c>
       <c r="D11">
-        <v>1.915680867560484</v>
+        <v>0.6026193765122717</v>
       </c>
       <c r="E11">
-        <v>1.826897871940218</v>
+        <v>0.7012636115479264</v>
       </c>
       <c r="F11">
-        <v>2.0162989170174</v>
-      </c>
-      <c r="G11">
         <v>1.168220271596209E-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -666,22 +631,19 @@
         <v>0.04611619939034112</v>
       </c>
       <c r="D12">
-        <v>1.5326632885972</v>
+        <v>0.390100504468905</v>
       </c>
       <c r="E12">
-        <v>1.477129244512766</v>
+        <v>0.4674049873652025</v>
       </c>
       <c r="F12">
-        <v>1.595847570666292</v>
-      </c>
-      <c r="G12">
         <v>6.368052952009029E-75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -691,22 +653,19 @@
         <v>0.05148917274473485</v>
       </c>
       <c r="D13">
-        <v>1.34368695278585</v>
+        <v>0.2670567272176608</v>
       </c>
       <c r="E13">
-        <v>1.306114536472771</v>
+        <v>0.3267896595413095</v>
       </c>
       <c r="F13">
-        <v>1.386509807397533</v>
-      </c>
-      <c r="G13">
         <v>5.001392388854444E-121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -716,15 +675,12 @@
         <v>0.08909319927614075</v>
       </c>
       <c r="D14">
-        <v>1.119593192117729</v>
+        <v>0.0948639024282848</v>
       </c>
       <c r="E14">
-        <v>1.099509204409986</v>
+        <v>0.1345209380939877</v>
       </c>
       <c r="F14">
-        <v>1.143988611692705</v>
-      </c>
-      <c r="G14">
         <v>6.125839358404144E-129</v>
       </c>
     </row>
@@ -741,15 +697,12 @@
         <v>0.03972269253683276</v>
       </c>
       <c r="D15">
-        <v>3.458590043973807</v>
+        <v>1.147909027769668</v>
       </c>
       <c r="E15">
-        <v>3.151596115278059</v>
+        <v>1.341339770561669</v>
       </c>
       <c r="F15">
-        <v>3.824163576522994</v>
-      </c>
-      <c r="G15">
         <v>5.663494893029817E-08</v>
       </c>
     </row>
@@ -766,22 +719,19 @@
         <v>0.04129660066212989</v>
       </c>
       <c r="D16">
-        <v>6.17343348187697</v>
+        <v>1.678714141632211</v>
       </c>
       <c r="E16">
-        <v>5.358661059968289</v>
+        <v>1.973730236095225</v>
       </c>
       <c r="F16">
-        <v>7.197474755468216</v>
-      </c>
-      <c r="G16">
         <v>3.043471029797234E-47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -791,22 +741,19 @@
         <v>0.0971831672609767</v>
       </c>
       <c r="D17">
-        <v>3.080517379640035</v>
+        <v>0.9299482841989498</v>
       </c>
       <c r="E17">
-        <v>2.53437810683471</v>
+        <v>1.361198841278739</v>
       </c>
       <c r="F17">
-        <v>3.900867020118817</v>
-      </c>
-      <c r="G17">
         <v>0.2252081833841802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -816,22 +763,19 @@
         <v>0.09724718010029326</v>
       </c>
       <c r="D18">
-        <v>1.89686889172432</v>
+        <v>0.5290940687987868</v>
       </c>
       <c r="E18">
-        <v>1.69739388978745</v>
+        <v>0.7746484455718301</v>
       </c>
       <c r="F18">
-        <v>2.169829180025964</v>
-      </c>
-      <c r="G18">
         <v>4.5688902738585E-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -841,22 +785,19 @@
         <v>0.09842101373967742</v>
       </c>
       <c r="D19">
-        <v>2.119759137986278</v>
+        <v>0.6194833787418021</v>
       </c>
       <c r="E19">
-        <v>1.857967928131396</v>
+        <v>0.9111711756938555</v>
       </c>
       <c r="F19">
-        <v>2.487233816030578</v>
-      </c>
-      <c r="G19">
         <v>0.003675657989699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -866,22 +807,19 @@
         <v>0.07799789017749924</v>
       </c>
       <c r="D20">
-        <v>2.586682719560869</v>
+        <v>0.8156361914828282</v>
       </c>
       <c r="E20">
-        <v>2.260613397956564</v>
+        <v>1.107374867485866</v>
       </c>
       <c r="F20">
-        <v>3.026403247780433</v>
-      </c>
-      <c r="G20">
         <v>0.5140614896639677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -891,22 +829,19 @@
         <v>0.08012781570293193</v>
       </c>
       <c r="D21">
-        <v>4.021860745737597</v>
+        <v>1.189453003234649</v>
       </c>
       <c r="E21">
-        <v>3.285283676261908</v>
+        <v>1.628440312110713</v>
       </c>
       <c r="F21">
-        <v>5.095920471633544</v>
-      </c>
-      <c r="G21">
         <v>3.72785233254055E-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -916,22 +851,19 @@
         <v>0.08225957107288757</v>
       </c>
       <c r="D22">
-        <v>2.559340532154027</v>
+        <v>0.7998068715296922</v>
       </c>
       <c r="E22">
-        <v>2.225111154679456</v>
+        <v>1.104178247276222</v>
       </c>
       <c r="F22">
-        <v>3.016744432003688</v>
-      </c>
-      <c r="G22">
         <v>0.4500035774772574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -941,22 +873,19 @@
         <v>0.07818661756129776</v>
       </c>
       <c r="D23">
-        <v>2.100113625261015</v>
+        <v>0.6365597163554798</v>
       </c>
       <c r="E23">
-        <v>1.889967657243362</v>
+        <v>0.8648855692845836</v>
       </c>
       <c r="F23">
-        <v>2.374734327880609</v>
-      </c>
-      <c r="G23">
         <v>0.000135956194070575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -966,22 +895,19 @@
         <v>0.08067576089114714</v>
       </c>
       <c r="D24">
-        <v>2.5580730170637</v>
+        <v>0.8018708511740036</v>
       </c>
       <c r="E24">
-        <v>2.229708481571551</v>
+        <v>1.100175346011213</v>
       </c>
       <c r="F24">
-        <v>3.004692838661832</v>
-      </c>
-      <c r="G24">
         <v>0.4372921183016478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -991,22 +917,19 @@
         <v>0.08924290627336878</v>
       </c>
       <c r="D25">
-        <v>2.175231849057097</v>
+        <v>0.6524161707624838</v>
       </c>
       <c r="E25">
-        <v>1.920174698615096</v>
+        <v>0.9256962555205366</v>
       </c>
       <c r="F25">
-        <v>2.523624736463623</v>
-      </c>
-      <c r="G25">
         <v>0.004731499848076963</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -1016,22 +939,19 @@
         <v>0.1527276715787947</v>
       </c>
       <c r="D26">
-        <v>2.083444058925325</v>
+        <v>0.5441181489232009</v>
       </c>
       <c r="E26">
-        <v>1.723088205000923</v>
+        <v>0.9902054731864975</v>
       </c>
       <c r="F26">
-        <v>2.691787505686723</v>
-      </c>
-      <c r="G26">
         <v>0.04292980899529057</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -1041,22 +961,19 @@
         <v>0.1229110393750694</v>
       </c>
       <c r="D27">
-        <v>1.819041656790441</v>
+        <v>0.4702109763037112</v>
       </c>
       <c r="E27">
-        <v>1.60033178968938</v>
+        <v>0.761306381729042</v>
       </c>
       <c r="F27">
-        <v>2.141071450904351</v>
-      </c>
-      <c r="G27">
         <v>2.94998618904437E-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -1066,22 +983,19 @@
         <v>0.07159285534227795</v>
       </c>
       <c r="D28">
-        <v>3.234283484549934</v>
+        <v>1.020117798578484</v>
       </c>
       <c r="E28">
-        <v>2.773521461607232</v>
+        <v>1.350651708196803</v>
       </c>
       <c r="F28">
-        <v>3.859940265881646</v>
-      </c>
-      <c r="G28">
         <v>0.02521522657938979</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1091,22 +1005,19 @@
         <v>0.08672860832715533</v>
       </c>
       <c r="D29">
-        <v>2.292772110191046</v>
+        <v>0.7000383781577695</v>
       </c>
       <c r="E29">
-        <v>2.013829993072623</v>
+        <v>0.9835237001890345</v>
       </c>
       <c r="F29">
-        <v>2.673861547900274</v>
-      </c>
-      <c r="G29">
         <v>0.03143964179982975</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1116,22 +1027,19 @@
         <v>0.09821379264798817</v>
       </c>
       <c r="D30">
-        <v>2.133286603926944</v>
+        <v>0.6249823964020229</v>
       </c>
       <c r="E30">
-        <v>1.868213069870936</v>
+        <v>0.9185129575849449</v>
       </c>
       <c r="F30">
-        <v>2.505561741710898</v>
-      </c>
-      <c r="G30">
         <v>0.004727155115798388</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -1141,15 +1049,12 @@
         <v>0.08776912389266119</v>
       </c>
       <c r="D31">
-        <v>2.27061557666643</v>
+        <v>0.690436233721189</v>
       </c>
       <c r="E31">
-        <v>1.994585448918622</v>
+        <v>0.9739981288867593</v>
       </c>
       <c r="F31">
-        <v>2.648512413242198</v>
-      </c>
-      <c r="G31">
         <v>0.0238187346277915</v>
       </c>
     </row>
@@ -1160,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,20 +1089,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -1216,15 +1116,12 @@
         <v>0.02588119315929905</v>
       </c>
       <c r="D2">
-        <v>3.139571208513195</v>
+        <v>1.087492502021705</v>
       </c>
       <c r="E2">
-        <v>2.966825428971399</v>
+        <v>1.203625133637377</v>
       </c>
       <c r="F2">
-        <v>3.332174632472971</v>
-      </c>
-      <c r="G2">
         <v>2.017873922671621E-07</v>
       </c>
     </row>
@@ -1241,15 +1138,12 @@
         <v>0.02533322837396959</v>
       </c>
       <c r="D3">
-        <v>3.495050561535769</v>
+        <v>1.190726556219355</v>
       </c>
       <c r="E3">
-        <v>3.289470324486714</v>
+        <v>1.315055429395669</v>
       </c>
       <c r="F3">
-        <v>3.724957451669447</v>
-      </c>
-      <c r="G3">
         <v>9.984117835621909E-19</v>
       </c>
     </row>
@@ -1266,15 +1160,12 @@
         <v>0.09940381315809847</v>
       </c>
       <c r="D4">
-        <v>2.423264444339869</v>
+        <v>0.7284138170311848</v>
       </c>
       <c r="E4">
-        <v>2.071791759202583</v>
+        <v>1.075528172273402</v>
       </c>
       <c r="F4">
-        <v>2.931540850301115</v>
-      </c>
-      <c r="G4">
         <v>0.2195891860323648</v>
       </c>
     </row>
@@ -1291,15 +1182,12 @@
         <v>0.09793708425975998</v>
       </c>
       <c r="D5">
-        <v>2.342150896865501</v>
+        <v>0.7024120196935003</v>
       </c>
       <c r="E5">
-        <v>2.018615781215842</v>
+        <v>1.031189107699958</v>
       </c>
       <c r="F5">
-        <v>2.804398584757885</v>
-      </c>
-      <c r="G5">
         <v>0.099672382402808</v>
       </c>
     </row>
@@ -1316,15 +1204,12 @@
         <v>0.1009098586324949</v>
       </c>
       <c r="D6">
-        <v>1.575393067222049</v>
+        <v>0.3729362393419356</v>
       </c>
       <c r="E6">
-        <v>1.451991756931307</v>
+        <v>0.553914043120161</v>
       </c>
       <c r="F6">
-        <v>1.740050338743222</v>
-      </c>
-      <c r="G6">
         <v>6.016890122312774E-15</v>
       </c>
     </row>
@@ -1341,15 +1226,12 @@
         <v>0.03920748742503193</v>
       </c>
       <c r="D7">
-        <v>2.216659545075577</v>
+        <v>0.7371175165181233</v>
       </c>
       <c r="E7">
-        <v>2.089902713895859</v>
+        <v>0.8595890616783233</v>
       </c>
       <c r="F7">
-        <v>2.362189779922975</v>
-      </c>
-      <c r="G7">
         <v>6.076427852355242E-09</v>
       </c>
     </row>
@@ -1366,15 +1248,12 @@
         <v>0.06219570410555068</v>
       </c>
       <c r="D8">
-        <v>3.623383409954791</v>
+        <v>1.139644742014643</v>
       </c>
       <c r="E8">
-        <v>3.125657753044659</v>
+        <v>1.454330369106127</v>
       </c>
       <c r="F8">
-        <v>4.281615403487931</v>
-      </c>
-      <c r="G8">
         <v>4.901161500345576E-05</v>
       </c>
     </row>
@@ -1391,15 +1270,12 @@
         <v>0.06698958405694583</v>
       </c>
       <c r="D9">
-        <v>4.048891448520259</v>
+        <v>1.226357297401621</v>
       </c>
       <c r="E9">
-        <v>3.408789685661939</v>
+        <v>1.594676514143665</v>
       </c>
       <c r="F9">
-        <v>4.926735085198942</v>
-      </c>
-      <c r="G9">
         <v>5.637428871666881E-07</v>
       </c>
     </row>
@@ -1416,22 +1292,19 @@
         <v>0.0321333325957814</v>
       </c>
       <c r="D10">
-        <v>2.426509416925718</v>
+        <v>0.8323408286289851</v>
       </c>
       <c r="E10">
-        <v>2.298693294427762</v>
+        <v>0.9440847554289695</v>
       </c>
       <c r="F10">
-        <v>2.57045970237029</v>
-      </c>
-      <c r="G10">
         <v>0.0001771450240227575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -1441,22 +1314,19 @@
         <v>0.03254718756904153</v>
       </c>
       <c r="D11">
-        <v>2.134055775576781</v>
+        <v>0.7111740750985127</v>
       </c>
       <c r="E11">
-        <v>2.036380719562921</v>
+        <v>0.8079608679422211</v>
       </c>
       <c r="F11">
-        <v>2.24332887573055</v>
-      </c>
-      <c r="G11">
         <v>1.927829717220143E-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -1466,22 +1336,19 @@
         <v>0.03602165954274004</v>
       </c>
       <c r="D12">
-        <v>1.674705290577455</v>
+        <v>0.4804843475809805</v>
       </c>
       <c r="E12">
-        <v>1.616857333510419</v>
+        <v>0.5533618885950724</v>
       </c>
       <c r="F12">
-        <v>1.739089827274583</v>
-      </c>
-      <c r="G12">
         <v>2.035766794960084E-74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -1491,22 +1358,19 @@
         <v>0.03965905727650007</v>
       </c>
       <c r="D13">
-        <v>1.427456322820202</v>
+        <v>0.3292753749580323</v>
       </c>
       <c r="E13">
-        <v>1.389960563222907</v>
+        <v>0.3846646157310156</v>
       </c>
       <c r="F13">
-        <v>1.469121518560045</v>
-      </c>
-      <c r="G13">
         <v>2.65979205233966E-145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -1516,15 +1380,12 @@
         <v>0.05529325148066316</v>
       </c>
       <c r="D14">
-        <v>1.145435468966711</v>
+        <v>0.1218374094358299</v>
       </c>
       <c r="E14">
-        <v>1.129570429355643</v>
+        <v>0.1513290179731232</v>
       </c>
       <c r="F14">
-        <v>1.163379367840754</v>
-      </c>
-      <c r="G14">
         <v>3.098983575208031E-270</v>
       </c>
     </row>
@@ -1541,15 +1402,12 @@
         <v>0.03363345966882023</v>
       </c>
       <c r="D15">
-        <v>2.951219172480641</v>
+        <v>1.013171483168395</v>
       </c>
       <c r="E15">
-        <v>2.75432246507896</v>
+        <v>1.155970737792217</v>
       </c>
       <c r="F15">
-        <v>3.177106057988101</v>
-      </c>
-      <c r="G15">
         <v>0.01882916182860393</v>
       </c>
     </row>
@@ -1566,22 +1424,19 @@
         <v>0.03536081145058162</v>
       </c>
       <c r="D16">
-        <v>4.704031117591829</v>
+        <v>1.444728694862398</v>
       </c>
       <c r="E16">
-        <v>4.240701462640918</v>
+        <v>1.659553080916909</v>
       </c>
       <c r="F16">
-        <v>5.256960883226981</v>
-      </c>
-      <c r="G16">
         <v>6.822393594989647E-35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -1591,22 +1446,19 @@
         <v>0.08018086500999744</v>
       </c>
       <c r="D17">
-        <v>2.208654329436183</v>
+        <v>0.6771391834628548</v>
       </c>
       <c r="E17">
-        <v>1.968238899850053</v>
+        <v>0.9272414216588036</v>
       </c>
       <c r="F17">
-        <v>2.527527170129845</v>
-      </c>
-      <c r="G17">
         <v>0.003711405664136698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -1616,22 +1468,19 @@
         <v>0.08252699653214465</v>
       </c>
       <c r="D18">
-        <v>2.349633053852954</v>
+        <v>0.7266662053356338</v>
       </c>
       <c r="E18">
-        <v>2.068174233629159</v>
+        <v>1.004255766806857</v>
       </c>
       <c r="F18">
-        <v>2.729874853143805</v>
-      </c>
-      <c r="G18">
         <v>0.05632413850945347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -1641,22 +1490,19 @@
         <v>0.08993823845280731</v>
       </c>
       <c r="D19">
-        <v>2.768995850204982</v>
+        <v>0.8538679291227083</v>
       </c>
       <c r="E19">
-        <v>2.348713964291071</v>
+        <v>1.214837964384452</v>
       </c>
       <c r="F19">
-        <v>3.369748000890372</v>
-      </c>
-      <c r="G19">
         <v>0.8386302161415162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -1666,22 +1512,19 @@
         <v>0.06710579355337719</v>
       </c>
       <c r="D20">
-        <v>2.437603427053633</v>
+        <v>0.7811932293357726</v>
       </c>
       <c r="E20">
-        <v>2.184076815804455</v>
+        <v>1.016276552742946</v>
       </c>
       <c r="F20">
-        <v>2.762888119558218</v>
-      </c>
-      <c r="G20">
         <v>0.08553683169150775</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -1691,22 +1534,19 @@
         <v>0.07097951042928977</v>
       </c>
       <c r="D21">
-        <v>3.068482978670274</v>
+        <v>0.9755560611559086</v>
       </c>
       <c r="E21">
-        <v>2.652641832038201</v>
+        <v>1.288549200441836</v>
       </c>
       <c r="F21">
-        <v>3.627519931954332</v>
-      </c>
-      <c r="G21">
         <v>0.1070953536445899</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -1716,22 +1556,19 @@
         <v>0.07243548808165576</v>
       </c>
       <c r="D22">
-        <v>2.268005538957328</v>
+        <v>0.7105055243572185</v>
       </c>
       <c r="E22">
-        <v>2.035019750712358</v>
+        <v>0.943833007973627</v>
       </c>
       <c r="F22">
-        <v>2.569812677128054</v>
-      </c>
-      <c r="G22">
         <v>0.005821293432786977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -1741,22 +1578,19 @@
         <v>0.06719167322804542</v>
       </c>
       <c r="D23">
-        <v>2.100462838067134</v>
+        <v>0.6505735204404461</v>
       </c>
       <c r="E23">
-        <v>1.91663974592938</v>
+        <v>0.8466346436558632</v>
       </c>
       <c r="F23">
-        <v>2.331786340679283</v>
-      </c>
-      <c r="G23">
         <v>9.168474497422593E-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -1766,22 +1600,19 @@
         <v>0.07135114260165441</v>
       </c>
       <c r="D24">
-        <v>2.222457945796242</v>
+        <v>0.6943781349069333</v>
       </c>
       <c r="E24">
-        <v>2.002463424564506</v>
+        <v>0.918496587814312</v>
       </c>
       <c r="F24">
-        <v>2.505520726575585</v>
-      </c>
-      <c r="G24">
         <v>0.00162746543531033</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -1791,22 +1622,19 @@
         <v>0.07660477736184228</v>
       </c>
       <c r="D25">
-        <v>1.959846110075411</v>
+        <v>0.5790491323297912</v>
       </c>
       <c r="E25">
-        <v>1.784340951715388</v>
+        <v>0.7818828627399791</v>
       </c>
       <c r="F25">
-        <v>2.185583547620566</v>
-      </c>
-      <c r="G25">
         <v>2.354424149584181E-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -1816,22 +1644,19 @@
         <v>0.1086269207376055</v>
       </c>
       <c r="D26">
-        <v>1.888128103471519</v>
+        <v>0.5136897351380755</v>
       </c>
       <c r="E26">
-        <v>1.671447028096079</v>
+        <v>0.7864074947347693</v>
       </c>
       <c r="F26">
-        <v>2.195494914602467</v>
-      </c>
-      <c r="G26">
         <v>3.040093527070442E-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -1841,22 +1666,19 @@
         <v>0.1013876098627073</v>
       </c>
       <c r="D27">
-        <v>1.503676397224629</v>
+        <v>0.3343928549056369</v>
       </c>
       <c r="E27">
-        <v>1.397091890181233</v>
+        <v>0.4975975010889473</v>
       </c>
       <c r="F27">
-        <v>1.644764974044824</v>
-      </c>
-      <c r="G27">
         <v>1.058662085115075E-18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -1866,22 +1688,19 @@
         <v>0.06352061694735514</v>
       </c>
       <c r="D28">
-        <v>2.480239772280833</v>
+        <v>0.8020123285444259</v>
       </c>
       <c r="E28">
-        <v>2.230023957180135</v>
+        <v>1.028798696488863</v>
       </c>
       <c r="F28">
-        <v>2.797702924819079</v>
-      </c>
-      <c r="G28">
         <v>0.1302556382524242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -1891,22 +1710,19 @@
         <v>0.07251042115365136</v>
       </c>
       <c r="D29">
-        <v>2.13247793381026</v>
+        <v>0.6569487855988395</v>
       </c>
       <c r="E29">
-        <v>1.928897865385505</v>
+        <v>0.8729448290031571</v>
       </c>
       <c r="F29">
-        <v>2.393950257667275</v>
-      </c>
-      <c r="G29">
         <v>0.0001266863212301217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -1916,22 +1732,19 @@
         <v>0.083961194963543</v>
       </c>
       <c r="D30">
-        <v>1.880982516990103</v>
+        <v>0.5359201221980942</v>
       </c>
       <c r="E30">
-        <v>1.709020026289805</v>
+        <v>0.7448199182310443</v>
       </c>
       <c r="F30">
-        <v>2.106062137434226</v>
-      </c>
-      <c r="G30">
         <v>4.620455340438664E-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -1941,15 +1754,12 @@
         <v>0.07567277932209916</v>
       </c>
       <c r="D31">
-        <v>1.825238265888802</v>
+        <v>0.5187616699689311</v>
       </c>
       <c r="E31">
-        <v>1.679946033477123</v>
+        <v>0.6979227438856871</v>
       </c>
       <c r="F31">
-        <v>2.009573969003787</v>
-      </c>
-      <c r="G31">
         <v>2.000879868405098E-11</v>
       </c>
     </row>
@@ -1960,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,20 +1794,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -2016,15 +1821,12 @@
         <v>0.07137679447846938</v>
       </c>
       <c r="D2">
-        <v>3.727458997810394</v>
+        <v>1.143939661963065</v>
       </c>
       <c r="E2">
-        <v>3.13911107266519</v>
+        <v>1.513311396352575</v>
       </c>
       <c r="F2">
-        <v>4.541745440157312</v>
-      </c>
-      <c r="G2">
         <v>0.0001215966120722792</v>
       </c>
     </row>
@@ -2041,15 +1843,12 @@
         <v>0.03442655684576738</v>
       </c>
       <c r="D3">
-        <v>3.581888328787284</v>
+        <v>1.192631229042826</v>
       </c>
       <c r="E3">
-        <v>3.295741659742374</v>
+        <v>1.364961421260501</v>
       </c>
       <c r="F3">
-        <v>3.915571991247034</v>
-      </c>
-      <c r="G3">
         <v>1.558561070349684E-12</v>
       </c>
     </row>
@@ -2066,15 +1865,12 @@
         <v>0.1209317259016045</v>
       </c>
       <c r="D4">
-        <v>2.543674629721127</v>
+        <v>0.7365750376974058</v>
       </c>
       <c r="E4">
-        <v>2.088769293392315</v>
+        <v>1.18335146094082</v>
       </c>
       <c r="F4">
-        <v>3.265299408390967</v>
-      </c>
-      <c r="G4">
         <v>0.5700039726183586</v>
       </c>
     </row>
@@ -2091,15 +1887,12 @@
         <v>0.1210985259444483</v>
       </c>
       <c r="D5">
-        <v>2.502816926216537</v>
+        <v>0.7235629952868921</v>
       </c>
       <c r="E5">
-        <v>2.061766202440598</v>
+        <v>1.163207233137659</v>
       </c>
       <c r="F5">
-        <v>3.200180559756174</v>
-      </c>
-      <c r="G5">
         <v>0.4766270618074812</v>
       </c>
     </row>
@@ -2116,15 +1909,12 @@
         <v>0.1271074011671839</v>
       </c>
       <c r="D6">
-        <v>1.558868087960008</v>
+        <v>0.346049421692659</v>
       </c>
       <c r="E6">
-        <v>1.413472470293508</v>
+        <v>0.5695731461991973</v>
       </c>
       <c r="F6">
-        <v>1.767512420991891</v>
-      </c>
-      <c r="G6">
         <v>1.741946263908228E-10</v>
       </c>
     </row>
@@ -2141,15 +1931,12 @@
         <v>0.0471893063350739</v>
       </c>
       <c r="D7">
-        <v>2.241176791168207</v>
+        <v>0.7357023996572537</v>
       </c>
       <c r="E7">
-        <v>2.086947348914446</v>
+        <v>0.8852094885486199</v>
       </c>
       <c r="F7">
-        <v>2.423492032139646</v>
-      </c>
-      <c r="G7">
         <v>5.576165568618706E-06</v>
       </c>
     </row>
@@ -2166,15 +1953,12 @@
         <v>0.06992371996301365</v>
       </c>
       <c r="D8">
-        <v>4.989888337551574</v>
+        <v>1.401528780618315</v>
       </c>
       <c r="E8">
-        <v>4.061404219219401</v>
+        <v>1.843542779464883</v>
       </c>
       <c r="F8">
-        <v>6.318885069010459</v>
-      </c>
-      <c r="G8">
         <v>1.196200286818978E-11</v>
       </c>
     </row>
@@ -2191,15 +1975,12 @@
         <v>0.07320549244526131</v>
       </c>
       <c r="D9">
-        <v>4.190273006384834</v>
+        <v>1.241240342101076</v>
       </c>
       <c r="E9">
-        <v>3.45990226686913</v>
+        <v>1.653844160171631</v>
       </c>
       <c r="F9">
-        <v>5.227034814240242</v>
-      </c>
-      <c r="G9">
         <v>9.128812291438205E-07</v>
       </c>
     </row>
@@ -2216,22 +1997,19 @@
         <v>0.04081950716344093</v>
       </c>
       <c r="D10">
-        <v>2.559607977945285</v>
+        <v>0.867583073378303</v>
       </c>
       <c r="E10">
-        <v>2.381148831136349</v>
+        <v>1.018145444638221</v>
       </c>
       <c r="F10">
-        <v>2.768056486827943</v>
-      </c>
-      <c r="G10">
         <v>0.1286317588850794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -2241,22 +2019,19 @@
         <v>0.03871088248616037</v>
       </c>
       <c r="D11">
-        <v>1.917123318854487</v>
+        <v>0.6032682056223023</v>
       </c>
       <c r="E11">
-        <v>1.828083601086782</v>
+        <v>0.7021324949427816</v>
       </c>
       <c r="F11">
-        <v>2.018051606996804</v>
-      </c>
-      <c r="G11">
         <v>1.856447712599921E-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -2266,22 +2041,19 @@
         <v>0.04619204165809371</v>
       </c>
       <c r="D12">
-        <v>1.53645154517744</v>
+        <v>0.3922974470028231</v>
       </c>
       <c r="E12">
-        <v>1.480377979913938</v>
+        <v>0.4701770644022253</v>
       </c>
       <c r="F12">
-        <v>1.600277520315578</v>
-      </c>
-      <c r="G12">
         <v>1.021049890038786E-73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -2291,22 +2063,19 @@
         <v>0.0514975350660377</v>
       </c>
       <c r="D13">
-        <v>1.347540624206242</v>
+        <v>0.2696412483569681</v>
       </c>
       <c r="E13">
-        <v>1.309494583122162</v>
+        <v>0.3299630810306842</v>
       </c>
       <c r="F13">
-        <v>1.390916776302067</v>
-      </c>
-      <c r="G13">
         <v>3.701137294072602E-119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -2316,15 +2085,12 @@
         <v>0.08905412244041441</v>
       </c>
       <c r="D14">
-        <v>1.121244654707718</v>
+        <v>0.09610904519975187</v>
       </c>
       <c r="E14">
-        <v>1.100879103030712</v>
+        <v>0.1362657252403662</v>
       </c>
       <c r="F14">
-        <v>1.145986370643247</v>
-      </c>
-      <c r="G14">
         <v>1.401671567810585E-127</v>
       </c>
     </row>
@@ -2341,15 +2107,12 @@
         <v>0.0397014468756137</v>
       </c>
       <c r="D15">
-        <v>3.443075827043783</v>
+        <v>1.143797640649047</v>
       </c>
       <c r="E15">
-        <v>3.138665283642322</v>
+        <v>1.33642426979165</v>
       </c>
       <c r="F15">
-        <v>3.805412021914945</v>
-      </c>
-      <c r="G15">
         <v>9.255352895383728E-08</v>
       </c>
     </row>
@@ -2366,22 +2129,19 @@
         <v>0.04122286810009809</v>
       </c>
       <c r="D16">
-        <v>6.003968717153707</v>
+        <v>1.653282988243265</v>
       </c>
       <c r="E16">
-        <v>5.224102371913011</v>
+        <v>1.943268031491051</v>
       </c>
       <c r="F16">
-        <v>6.981529588294585</v>
-      </c>
-      <c r="G16">
         <v>4.165824790288504E-45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -2391,22 +2151,19 @@
         <v>0.0973661242597062</v>
       </c>
       <c r="D17">
-        <v>3.081702772507745</v>
+        <v>0.9299327221563831</v>
       </c>
       <c r="E17">
-        <v>2.534338667041613</v>
+        <v>1.362152723967163</v>
       </c>
       <c r="F17">
-        <v>3.90458976488777</v>
-      </c>
-      <c r="G17">
         <v>0.2247373025768829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -2416,22 +2173,19 @@
         <v>0.09733210608482624</v>
       </c>
       <c r="D18">
-        <v>1.895415634854206</v>
+        <v>0.5283726923565515</v>
       </c>
       <c r="E18">
-        <v>1.696169871364271</v>
+        <v>0.7738498782705604</v>
       </c>
       <c r="F18">
-        <v>2.168097117069921</v>
-      </c>
-      <c r="G18">
         <v>4.390981612633554E-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -2441,22 +2195,19 @@
         <v>0.09846321432745962</v>
       </c>
       <c r="D19">
-        <v>2.123191170989555</v>
+        <v>0.6207659423952919</v>
       </c>
       <c r="E19">
-        <v>1.860352419069204</v>
+        <v>0.9132087125920466</v>
       </c>
       <c r="F19">
-        <v>2.492306813159517</v>
-      </c>
-      <c r="G19">
         <v>0.00395590672923135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -2466,22 +2217,19 @@
         <v>0.07803817474422545</v>
       </c>
       <c r="D20">
-        <v>2.593973560950901</v>
+        <v>0.8179871914123592</v>
       </c>
       <c r="E20">
-        <v>2.265934352226582</v>
+        <v>1.110742183871371</v>
       </c>
       <c r="F20">
-        <v>3.036611282221061</v>
-      </c>
-      <c r="G20">
         <v>0.5390190883493287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -2491,22 +2239,19 @@
         <v>0.0802108118296833</v>
       </c>
       <c r="D21">
-        <v>4.032505510056092</v>
+        <v>1.191518176351783</v>
       </c>
       <c r="E21">
-        <v>3.292075366386371</v>
+        <v>1.631798529878449</v>
       </c>
       <c r="F21">
-        <v>5.113062449441512</v>
-      </c>
-      <c r="G21">
         <v>3.426505374613505E-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -2516,22 +2261,19 @@
         <v>0.0823450440563722</v>
       </c>
       <c r="D22">
-        <v>2.56548009695386</v>
+        <v>0.8017117505152593</v>
       </c>
       <c r="E22">
-        <v>2.229353761702156</v>
+        <v>1.107178975464468</v>
       </c>
       <c r="F22">
-        <v>3.025810457593988</v>
-      </c>
-      <c r="G22">
         <v>0.4692478123674155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -2541,22 +2283,19 @@
         <v>0.07825952774206268</v>
       </c>
       <c r="D23">
-        <v>2.105374452310802</v>
+        <v>0.6386148283851261</v>
       </c>
       <c r="E23">
-        <v>1.893855746372336</v>
+        <v>0.8679258706227306</v>
       </c>
       <c r="F23">
-        <v>2.381965222314563</v>
-      </c>
-      <c r="G23">
         <v>0.0001639762274902808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -2566,22 +2305,19 @@
         <v>0.08073576376790249</v>
       </c>
       <c r="D24">
-        <v>2.564213220901633</v>
+        <v>0.8038230794595635</v>
       </c>
       <c r="E24">
-        <v>2.234065633231356</v>
+        <v>1.103113281396565</v>
       </c>
       <c r="F24">
-        <v>3.01353341223269</v>
-      </c>
-      <c r="G24">
         <v>0.4564994028397962</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -2591,22 +2327,19 @@
         <v>0.08933989494014724</v>
       </c>
       <c r="D25">
-        <v>2.182175857484339</v>
+        <v>0.6549673589831804</v>
       </c>
       <c r="E25">
-        <v>1.92507967979262</v>
+        <v>0.9296694904867276</v>
       </c>
       <c r="F25">
-        <v>2.533671636638431</v>
-      </c>
-      <c r="G25">
         <v>0.005504670962843629</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -2616,22 +2349,19 @@
         <v>0.1526225944471183</v>
       </c>
       <c r="D26">
-        <v>2.081730827112096</v>
+        <v>0.5436202934076324</v>
       </c>
       <c r="E26">
-        <v>1.722230569541239</v>
+        <v>0.9888920107665067</v>
       </c>
       <c r="F26">
-        <v>2.688254264852888</v>
-      </c>
-      <c r="G26">
         <v>0.04203930389432414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -2641,22 +2371,19 @@
         <v>0.1228089484088108</v>
       </c>
       <c r="D27">
-        <v>1.821956930197042</v>
+        <v>0.4715638410798573</v>
       </c>
       <c r="E27">
-        <v>1.602498287356554</v>
+        <v>0.7631912549490246</v>
       </c>
       <c r="F27">
-        <v>2.145110904877609</v>
-      </c>
-      <c r="G27">
         <v>3.196100374479361E-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -2666,22 +2393,19 @@
         <v>0.0717097240482745</v>
       </c>
       <c r="D28">
-        <v>3.231191139225062</v>
+        <v>1.019052998491694</v>
       </c>
       <c r="E28">
-        <v>2.770569787464526</v>
+        <v>1.349860215298786</v>
       </c>
       <c r="F28">
-        <v>3.856886359306544</v>
-      </c>
-      <c r="G28">
         <v>0.02621055604326524</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -2691,22 +2415,19 @@
         <v>0.08672255361790547</v>
       </c>
       <c r="D29">
-        <v>2.296711895134061</v>
+        <v>0.7014951661978382</v>
       </c>
       <c r="E29">
-        <v>2.01676585446593</v>
+        <v>0.9855470306965813</v>
       </c>
       <c r="F29">
-        <v>2.679277130452238</v>
-      </c>
-      <c r="G29">
         <v>0.03335474866982974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -2716,22 +2437,19 @@
         <v>0.0981321609805032</v>
       </c>
       <c r="D30">
-        <v>2.128526023232518</v>
+        <v>0.6232392770859023</v>
       </c>
       <c r="E30">
-        <v>1.864959388183764</v>
+        <v>0.915658080975169</v>
       </c>
       <c r="F30">
-        <v>2.498418872955995</v>
-      </c>
-      <c r="G30">
         <v>0.004270120427718255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -2741,15 +2459,12 @@
         <v>0.08782225168689047</v>
       </c>
       <c r="D31">
-        <v>2.276453936099101</v>
+        <v>0.6925261925986648</v>
       </c>
       <c r="E31">
-        <v>1.998758409623676</v>
+        <v>0.9771499322687972</v>
       </c>
       <c r="F31">
-        <v>2.656873172436958</v>
-      </c>
-      <c r="G31">
         <v>0.02621005767085071</v>
       </c>
     </row>
@@ -2760,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2784,20 +2499,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -2816,15 +2526,12 @@
         <v>0.08557329477201486</v>
       </c>
       <c r="D2">
-        <v>3.127384064054181</v>
+        <v>0.9641217328983627</v>
       </c>
       <c r="E2">
-        <v>2.622483403849863</v>
+        <v>1.348428222336243</v>
       </c>
       <c r="F2">
-        <v>3.851367277768773</v>
-      </c>
-      <c r="G2">
         <v>0.1252548272444189</v>
       </c>
     </row>
@@ -2841,15 +2548,12 @@
         <v>0.1841039196758566</v>
       </c>
       <c r="D3">
-        <v>3.9131867310468</v>
+        <v>0.9510426671133878</v>
       </c>
       <c r="E3">
-        <v>2.588407099764229</v>
+        <v>1.957279747344975</v>
       </c>
       <c r="F3">
-        <v>7.080041344767293</v>
-      </c>
-      <c r="G3">
         <v>0.0915305914021738</v>
       </c>
     </row>
@@ -2866,15 +2570,12 @@
         <v>0.3546012609867955</v>
       </c>
       <c r="D4">
-        <v>3.124120756617978</v>
+        <v>0.5684762220511761</v>
       </c>
       <c r="E4">
-        <v>1.765574656919779</v>
+        <v>2.282715172072457</v>
       </c>
       <c r="F4">
-        <v>9.803261849399574</v>
-      </c>
-      <c r="G4">
         <v>0.7133183479036636</v>
       </c>
     </row>
@@ -2891,15 +2592,12 @@
         <v>0.03438764764218817</v>
       </c>
       <c r="D5">
-        <v>3.581236844723871</v>
+        <v>1.192552149176269</v>
       </c>
       <c r="E5">
-        <v>3.295481043236612</v>
+        <v>1.364662739791016</v>
       </c>
       <c r="F5">
-        <v>3.914402657088731</v>
-      </c>
-      <c r="G5">
         <v>1.515938543138608E-12</v>
       </c>
     </row>
@@ -2916,15 +2614,12 @@
         <v>0.1212710879738665</v>
       </c>
       <c r="D6">
-        <v>2.53983660141658</v>
+        <v>0.7348946994235237</v>
       </c>
       <c r="E6">
-        <v>2.085262401610713</v>
+        <v>1.182223715062306</v>
       </c>
       <c r="F6">
-        <v>3.261619056082172</v>
-      </c>
-      <c r="G6">
         <v>0.5620474243338119</v>
       </c>
     </row>
@@ -2941,15 +2636,12 @@
         <v>0.121260267583213</v>
       </c>
       <c r="D7">
-        <v>2.480023387312829</v>
+        <v>0.7161202329102467</v>
       </c>
       <c r="E7">
-        <v>2.046477930580988</v>
+        <v>1.151972398846064</v>
       </c>
       <c r="F7">
-        <v>3.164428273030735</v>
-      </c>
-      <c r="G7">
         <v>0.4275236298833681</v>
       </c>
     </row>
@@ -2966,15 +2658,12 @@
         <v>0.1272239298247059</v>
       </c>
       <c r="D8">
-        <v>1.549037433447167</v>
+        <v>0.3410404507880452</v>
       </c>
       <c r="E8">
-        <v>1.406410130109632</v>
+        <v>0.561585227990527</v>
       </c>
       <c r="F8">
-        <v>1.753449916182894</v>
-      </c>
-      <c r="G8">
         <v>8.630402876231085E-11</v>
       </c>
     </row>
@@ -2991,15 +2680,12 @@
         <v>0.04717791975743441</v>
       </c>
       <c r="D9">
-        <v>2.23878207508507</v>
+        <v>0.7347441711941918</v>
       </c>
       <c r="E9">
-        <v>2.084948534377238</v>
+        <v>0.8840170722522418</v>
       </c>
       <c r="F9">
-        <v>2.420603942990868</v>
-      </c>
-      <c r="G9">
         <v>4.853842060867878E-06</v>
       </c>
     </row>
@@ -3016,15 +2702,12 @@
         <v>0.06978314744962895</v>
       </c>
       <c r="D10">
-        <v>5.118813274694743</v>
+        <v>1.424162924056405</v>
       </c>
       <c r="E10">
-        <v>4.15437885627004</v>
+        <v>1.872283198921779</v>
       </c>
       <c r="F10">
-        <v>6.503127395243904</v>
-      </c>
-      <c r="G10">
         <v>2.231352614655492E-12</v>
       </c>
     </row>
@@ -3041,15 +2724,12 @@
         <v>0.07317113767266674</v>
       </c>
       <c r="D11">
-        <v>4.16790969377429</v>
+        <v>1.236687695899293</v>
       </c>
       <c r="E11">
-        <v>3.444186357587432</v>
+        <v>1.647556254136957</v>
       </c>
       <c r="F11">
-        <v>5.194270826876418</v>
-      </c>
-      <c r="G11">
         <v>1.169179801977927E-06</v>
       </c>
     </row>
@@ -3066,22 +2746,19 @@
         <v>0.04076136481085046</v>
       </c>
       <c r="D12">
-        <v>2.559863289542961</v>
+        <v>0.8677740376091192</v>
       </c>
       <c r="E12">
-        <v>2.381603588811189</v>
+        <v>1.018137453276329</v>
       </c>
       <c r="F12">
-        <v>2.768034366375205</v>
-      </c>
-      <c r="G12">
         <v>0.1287413897816237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B13">
@@ -3091,22 +2768,19 @@
         <v>0.03871762758509158</v>
       </c>
       <c r="D13">
-        <v>1.916495230604276</v>
+        <v>0.6029565028193081</v>
       </c>
       <c r="E13">
-        <v>1.827513871102044</v>
+        <v>0.7017882692240722</v>
       </c>
       <c r="F13">
-        <v>2.0173570612791</v>
-      </c>
-      <c r="G13">
         <v>1.6423976998306E-28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B14">
@@ -3116,22 +2790,19 @@
         <v>0.04608728652262038</v>
       </c>
       <c r="D14">
-        <v>1.533377779936556</v>
+        <v>0.3905484224463062</v>
       </c>
       <c r="E14">
-        <v>1.477791025457054</v>
+        <v>0.4678886313625746</v>
       </c>
       <c r="F14">
-        <v>1.596619579438221</v>
-      </c>
-      <c r="G14">
         <v>7.916029362259267E-75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B15">
@@ -3141,22 +2812,19 @@
         <v>0.05144257072948728</v>
       </c>
       <c r="D15">
-        <v>1.344128643252597</v>
+        <v>0.2673782593302201</v>
       </c>
       <c r="E15">
-        <v>1.306534561761118</v>
+        <v>0.327123340769255</v>
       </c>
       <c r="F15">
-        <v>1.386972536890403</v>
-      </c>
-      <c r="G15">
         <v>5.025526594416442E-121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B16">
@@ -3166,15 +2834,12 @@
         <v>0.08910520376937868</v>
       </c>
       <c r="D16">
-        <v>1.11969747310659</v>
+        <v>0.09493988129009175</v>
       </c>
       <c r="E16">
-        <v>1.09959274704158</v>
+        <v>0.1346350161883637</v>
       </c>
       <c r="F16">
-        <v>1.144119123177624</v>
-      </c>
-      <c r="G16">
         <v>8.21361637635167E-129</v>
       </c>
     </row>
@@ -3191,15 +2856,12 @@
         <v>0.03973180169685171</v>
       </c>
       <c r="D17">
-        <v>3.460180916413108</v>
+        <v>1.148313944868469</v>
       </c>
       <c r="E17">
-        <v>3.152872508832999</v>
+        <v>1.341860841534697</v>
       </c>
       <c r="F17">
-        <v>3.826156756407823</v>
-      </c>
-      <c r="G17">
         <v>5.413158740417146E-08</v>
       </c>
     </row>
@@ -3216,22 +2878,19 @@
         <v>0.04122387622774601</v>
       </c>
       <c r="D18">
-        <v>6.174608345934866</v>
+        <v>1.679128980946695</v>
       </c>
       <c r="E18">
-        <v>5.360884504403158</v>
+        <v>1.973655205347013</v>
       </c>
       <c r="F18">
-        <v>7.196934743811072</v>
-      </c>
-      <c r="G18">
         <v>2.035041342501336E-47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B19">
@@ -3241,22 +2900,19 @@
         <v>0.09716381060162982</v>
       </c>
       <c r="D19">
-        <v>3.078814959923541</v>
+        <v>0.9295266376318436</v>
       </c>
       <c r="E19">
-        <v>2.533309720262808</v>
+        <v>1.360478428278897</v>
       </c>
       <c r="F19">
-        <v>3.898057796828855</v>
-      </c>
-      <c r="G19">
         <v>0.2270552257279662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B20">
@@ -3266,22 +2922,19 @@
         <v>0.09726243815141321</v>
       </c>
       <c r="D20">
-        <v>1.896115076286853</v>
+        <v>0.5287497580046182</v>
       </c>
       <c r="E20">
-        <v>1.696809559350652</v>
+        <v>0.7741906529425835</v>
       </c>
       <c r="F20">
-        <v>2.168836075555921</v>
-      </c>
-      <c r="G20">
         <v>4.446802309548401E-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B21">
@@ -3291,22 +2944,19 @@
         <v>0.09835645536238335</v>
       </c>
       <c r="D21">
-        <v>2.119375335023203</v>
+        <v>0.6194124499398448</v>
       </c>
       <c r="E21">
-        <v>1.857836149365689</v>
+        <v>0.9108363022667765</v>
       </c>
       <c r="F21">
-        <v>2.486401046962555</v>
-      </c>
-      <c r="G21">
         <v>0.003624840541428099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B22">
@@ -3316,22 +2966,19 @@
         <v>0.07789471707301635</v>
       </c>
       <c r="D22">
-        <v>2.58687837621998</v>
+        <v>0.8158660846672962</v>
       </c>
       <c r="E22">
-        <v>2.261133157311749</v>
+        <v>1.107239055065549</v>
       </c>
       <c r="F22">
-        <v>3.025992252540257</v>
-      </c>
-      <c r="G22">
         <v>0.5141629749360701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B23">
@@ -3341,22 +2988,19 @@
         <v>0.08003043149812458</v>
       </c>
       <c r="D23">
-        <v>4.023769039164319</v>
+        <v>1.190085571368538</v>
       </c>
       <c r="E23">
-        <v>3.287362499455632</v>
+        <v>1.628684431547372</v>
       </c>
       <c r="F23">
-        <v>5.0971646367246</v>
-      </c>
-      <c r="G23">
         <v>3.580626999185058E-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B24">
@@ -3366,22 +3010,19 @@
         <v>0.08217188124467995</v>
       </c>
       <c r="D24">
-        <v>2.558891931425444</v>
+        <v>0.7997951408762072</v>
       </c>
       <c r="E24">
-        <v>2.225085052824631</v>
+        <v>1.10378254133486</v>
       </c>
       <c r="F24">
-        <v>3.015550924462959</v>
-      </c>
-      <c r="G24">
         <v>0.4481605145237192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B25">
@@ -3391,22 +3032,19 @@
         <v>0.07807214659671791</v>
       </c>
       <c r="D25">
-        <v>2.100487033004885</v>
+        <v>0.6368551234233977</v>
       </c>
       <c r="E25">
-        <v>1.8905260495199</v>
+        <v>0.8648987156535162</v>
       </c>
       <c r="F25">
-        <v>2.37476554721941</v>
-      </c>
-      <c r="G25">
         <v>0.0001345727205621555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B26">
@@ -3416,22 +3054,19 @@
         <v>0.08056966553657702</v>
       </c>
       <c r="D26">
-        <v>2.557945985327262</v>
+        <v>0.8019952221100939</v>
       </c>
       <c r="E26">
-        <v>2.229985809748037</v>
+        <v>1.099888418084368</v>
       </c>
       <c r="F26">
-        <v>3.003830832047631</v>
-      </c>
-      <c r="G26">
         <v>0.4363019797687033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B27">
@@ -3441,22 +3076,19 @@
         <v>0.08916096221356194</v>
       </c>
       <c r="D27">
-        <v>2.175509861173996</v>
+        <v>0.6526282782155232</v>
       </c>
       <c r="E27">
-        <v>1.920582025176782</v>
+        <v>0.9256997871336651</v>
       </c>
       <c r="F27">
-        <v>2.523633648945612</v>
-      </c>
-      <c r="G27">
         <v>0.004720409875445731</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B28">
@@ -3466,22 +3098,19 @@
         <v>0.1528950953459338</v>
       </c>
       <c r="D28">
-        <v>2.082545643808047</v>
+        <v>0.5436199891166216</v>
       </c>
       <c r="E28">
-        <v>1.722230045482038</v>
+        <v>0.9899484650334859</v>
       </c>
       <c r="F28">
-        <v>2.691095783244548</v>
-      </c>
-      <c r="G28">
         <v>0.04276283961957019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B29">
@@ -3491,22 +3120,19 @@
         <v>0.1227090290920496</v>
       </c>
       <c r="D29">
-        <v>1.818933320770501</v>
+        <v>0.4703503776367792</v>
       </c>
       <c r="E29">
-        <v>1.600554893624346</v>
+        <v>0.7609292323572302</v>
       </c>
       <c r="F29">
-        <v>2.140264099407263</v>
-      </c>
-      <c r="G29">
         <v>2.851977989510759E-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B30">
@@ -3516,22 +3142,19 @@
         <v>0.07147517787702191</v>
       </c>
       <c r="D30">
-        <v>3.232575737781432</v>
+        <v>1.019894025190137</v>
       </c>
       <c r="E30">
-        <v>2.772900890748327</v>
+        <v>1.349732610868328</v>
       </c>
       <c r="F30">
-        <v>3.856394234918617</v>
-      </c>
-      <c r="G30">
         <v>0.02538592021701831</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B31">
@@ -3541,22 +3164,19 @@
         <v>0.08664120603519103</v>
       </c>
       <c r="D31">
-        <v>2.293124783959366</v>
+        <v>0.7002881035856541</v>
       </c>
       <c r="E31">
-        <v>2.014332960428585</v>
+        <v>0.9835374955048685</v>
       </c>
       <c r="F31">
-        <v>2.673898434919257</v>
-      </c>
-      <c r="G31">
         <v>0.03143717146514049</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B32">
@@ -3566,22 +3186,19 @@
         <v>0.09821876532605854</v>
       </c>
       <c r="D32">
-        <v>2.132221384497743</v>
+        <v>0.6245643134809109</v>
       </c>
       <c r="E32">
-        <v>1.867432165146264</v>
+        <v>0.9179164180267004</v>
       </c>
       <c r="F32">
-        <v>2.504067520741613</v>
-      </c>
-      <c r="G32">
         <v>0.004631162788783343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B33">
@@ -3591,15 +3208,12 @@
         <v>0.08767888146441462</v>
       </c>
       <c r="D33">
-        <v>2.270421112888743</v>
+        <v>0.6904862512793375</v>
       </c>
       <c r="E33">
-        <v>1.99468521570732</v>
+        <v>0.9737241480733284</v>
       </c>
       <c r="F33">
-        <v>2.647786871053694</v>
-      </c>
-      <c r="G33">
         <v>0.02360138202022253</v>
       </c>
     </row>
@@ -3610,7 +3224,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3634,20 +3248,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -3666,15 +3275,12 @@
         <v>0.03073999425107143</v>
       </c>
       <c r="D2">
-        <v>2.800153370068804</v>
+        <v>0.9694626314026032</v>
       </c>
       <c r="E2">
-        <v>2.636527291644833</v>
+        <v>1.093625380352599</v>
       </c>
       <c r="F2">
-        <v>2.985076517002175</v>
-      </c>
-      <c r="G2">
         <v>0.3414812493924695</v>
       </c>
     </row>
@@ -3691,15 +3297,12 @@
         <v>0.0344234020627798</v>
       </c>
       <c r="D3">
-        <v>3.583251556928289</v>
+        <v>1.192994292409876</v>
       </c>
       <c r="E3">
-        <v>3.296938440046686</v>
+        <v>1.3653600590744</v>
       </c>
       <c r="F3">
-        <v>3.91713319746303</v>
-      </c>
-      <c r="G3">
         <v>1.457693709011802E-12</v>
       </c>
     </row>
@@ -3716,15 +3319,12 @@
         <v>0.1202375433090007</v>
       </c>
       <c r="D4">
-        <v>2.530114704809256</v>
+        <v>0.7333552120260693</v>
       </c>
       <c r="E4">
-        <v>2.082054636213789</v>
+        <v>1.174976637468497</v>
       </c>
       <c r="F4">
-        <v>3.23806729350512</v>
-      </c>
-      <c r="G4">
         <v>0.5358666039770532</v>
       </c>
     </row>
@@ -3741,15 +3341,12 @@
         <v>0.1203481296502794</v>
       </c>
       <c r="D5">
-        <v>2.465635903174461</v>
+        <v>0.7128061890720317</v>
       </c>
       <c r="E5">
-        <v>2.039707038718325</v>
+        <v>1.142548365256606</v>
       </c>
       <c r="F5">
-        <v>3.134746674558951</v>
-      </c>
-      <c r="G5">
         <v>0.3937451682834728</v>
       </c>
     </row>
@@ -3766,15 +3363,12 @@
         <v>0.1265821572622124</v>
       </c>
       <c r="D6">
-        <v>1.546515576745537</v>
+        <v>0.3401984302370565</v>
       </c>
       <c r="E6">
-        <v>1.405226402308467</v>
+        <v>0.5587910088573071</v>
       </c>
       <c r="F6">
-        <v>1.748557231677649</v>
-      </c>
-      <c r="G6">
         <v>5.699899263561359E-11</v>
       </c>
     </row>
@@ -3791,15 +3385,12 @@
         <v>0.04720287848562865</v>
       </c>
       <c r="D7">
-        <v>2.241022977850671</v>
+        <v>0.7356202598795107</v>
       </c>
       <c r="E7">
-        <v>2.086775934563109</v>
+        <v>0.8851577524478464</v>
       </c>
       <c r="F7">
-        <v>2.42336665335498</v>
-      </c>
-      <c r="G7">
         <v>5.563095553956819E-06</v>
       </c>
     </row>
@@ -3816,15 +3407,12 @@
         <v>0.06980900592078391</v>
       </c>
       <c r="D8">
-        <v>5.225667091928076</v>
+        <v>1.442108422500953</v>
       </c>
       <c r="E8">
-        <v>4.229604215060098</v>
+        <v>1.896067534596281</v>
       </c>
       <c r="F8">
-        <v>6.659654022279768</v>
-      </c>
-      <c r="G8">
         <v>6.195840641300155E-13</v>
       </c>
     </row>
@@ -3841,15 +3429,12 @@
         <v>0.07312407228263486</v>
       </c>
       <c r="D9">
-        <v>4.162315223259869</v>
+        <v>1.235637986420746</v>
       </c>
       <c r="E9">
-        <v>3.440572859415438</v>
+        <v>1.645854078132164</v>
       </c>
       <c r="F9">
-        <v>5.185436784393066</v>
-      </c>
-      <c r="G9">
         <v>1.228019069112962E-06</v>
       </c>
     </row>
@@ -3866,22 +3451,19 @@
         <v>0.04089883262189473</v>
       </c>
       <c r="D10">
-        <v>2.567516740658533</v>
+        <v>0.8702955792928251</v>
       </c>
       <c r="E10">
-        <v>2.387616479225434</v>
+        <v>1.021646350991447</v>
       </c>
       <c r="F10">
-        <v>2.777764176309593</v>
-      </c>
-      <c r="G10">
         <v>0.1508718798292077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -3891,22 +3473,19 @@
         <v>0.03862483055820359</v>
       </c>
       <c r="D11">
-        <v>1.913856406452675</v>
+        <v>0.6017888084866123</v>
       </c>
       <c r="E11">
-        <v>1.825381138943796</v>
+        <v>0.7001744061886284</v>
       </c>
       <c r="F11">
-        <v>2.014103949033487</v>
-      </c>
-      <c r="G11">
         <v>6.633385240327816E-29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -3916,22 +3495,19 @@
         <v>0.04598186556042358</v>
       </c>
       <c r="D12">
-        <v>1.530868198230417</v>
+        <v>0.3891323358721917</v>
       </c>
       <c r="E12">
-        <v>1.475699826435444</v>
+        <v>0.4659994844815236</v>
       </c>
       <c r="F12">
-        <v>1.593606177814844</v>
-      </c>
-      <c r="G12">
         <v>8.217299341127664E-76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -3941,22 +3517,19 @@
         <v>0.05169958617479221</v>
       </c>
       <c r="D13">
-        <v>1.34289447023548</v>
+        <v>0.266413503719806</v>
       </c>
       <c r="E13">
-        <v>1.305274683047708</v>
+        <v>0.3262715940507365</v>
       </c>
       <c r="F13">
-        <v>1.38579169054582</v>
-      </c>
-      <c r="G13">
         <v>1.840087227470136E-120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -3966,15 +3539,12 @@
         <v>0.09157191457399011</v>
       </c>
       <c r="D14">
-        <v>1.119682143467796</v>
+        <v>0.09447049623090518</v>
       </c>
       <c r="E14">
-        <v>1.099076735748398</v>
+        <v>0.1352711946038903</v>
       </c>
       <c r="F14">
-        <v>1.144847218643334</v>
-      </c>
-      <c r="G14">
         <v>3.008550286908233E-122</v>
       </c>
     </row>
@@ -3991,15 +3561,12 @@
         <v>0.03982022650048703</v>
       </c>
       <c r="D15">
-        <v>3.464147264891745</v>
+        <v>1.149174535130274</v>
       </c>
       <c r="E15">
-        <v>3.155587008079089</v>
+        <v>1.343332072961263</v>
       </c>
       <c r="F15">
-        <v>3.831790061402372</v>
-      </c>
-      <c r="G15">
         <v>5.087099221738407E-08</v>
       </c>
     </row>
@@ -4016,22 +3583,19 @@
         <v>0.0415309502126447</v>
       </c>
       <c r="D16">
-        <v>6.290117308568552</v>
+        <v>1.695203799924861</v>
       </c>
       <c r="E16">
-        <v>5.447756104370551</v>
+        <v>1.994949759280637</v>
       </c>
       <c r="F16">
-        <v>7.351833657200575</v>
-      </c>
-      <c r="G16">
         <v>2.853765044332043E-48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -4041,22 +3605,19 @@
         <v>0.09696681705286192</v>
       </c>
       <c r="D17">
-        <v>3.074733812082144</v>
+        <v>0.9287888090122804</v>
       </c>
       <c r="E17">
-        <v>2.531441261235017</v>
+        <v>1.358349077692915</v>
       </c>
       <c r="F17">
-        <v>3.88976629606389</v>
-      </c>
-      <c r="G17">
         <v>0.2308145657836085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -4066,22 +3627,19 @@
         <v>0.09715925000048285</v>
       </c>
       <c r="D18">
-        <v>1.895908305116198</v>
+        <v>0.5287665750906939</v>
       </c>
       <c r="E18">
-        <v>1.696838094983008</v>
+        <v>0.7739021378185097</v>
       </c>
       <c r="F18">
-        <v>2.168210423805823</v>
-      </c>
-      <c r="G18">
         <v>4.307870390269972E-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -4091,22 +3649,19 @@
         <v>0.09834270449758972</v>
       </c>
       <c r="D19">
-        <v>2.119954244105982</v>
+        <v>0.619654377368144</v>
       </c>
       <c r="E19">
-        <v>1.858285665260426</v>
+        <v>0.911142926588739</v>
       </c>
       <c r="F19">
-        <v>2.487163554893472</v>
-      </c>
-      <c r="G19">
         <v>0.00366314493950824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -4116,22 +3671,19 @@
         <v>0.07790044543310282</v>
       </c>
       <c r="D20">
-        <v>2.580976790458078</v>
+        <v>0.8138964008378075</v>
       </c>
       <c r="E20">
-        <v>2.256683823224662</v>
+        <v>1.104590730722046</v>
       </c>
       <c r="F20">
-        <v>3.017989045815821</v>
-      </c>
-      <c r="G20">
         <v>0.4944778030513525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -4141,22 +3693,19 @@
         <v>0.08005351233980401</v>
       </c>
       <c r="D21">
-        <v>4.018357691653906</v>
+        <v>1.188881422001905</v>
       </c>
       <c r="E21">
-        <v>3.283406406325558</v>
+        <v>1.627183719429202</v>
       </c>
       <c r="F21">
-        <v>5.089520996871979</v>
-      </c>
-      <c r="G21">
         <v>3.79299343026916E-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -4166,22 +3715,19 @@
         <v>0.08223846914867995</v>
       </c>
       <c r="D22">
-        <v>2.559378680209404</v>
+        <v>0.7998526412181707</v>
       </c>
       <c r="E22">
-        <v>2.225212999654524</v>
+        <v>1.104150088154076</v>
       </c>
       <c r="F22">
-        <v>3.016659484324776</v>
-      </c>
-      <c r="G22">
         <v>0.4500029916195658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -4191,22 +3737,19 @@
         <v>0.07808138673916333</v>
       </c>
       <c r="D23">
-        <v>2.097454017113421</v>
+        <v>0.6356036573903008</v>
       </c>
       <c r="E23">
-        <v>1.888161600206836</v>
+        <v>0.8632303921199634</v>
       </c>
       <c r="F23">
-        <v>2.370806972979755</v>
-      </c>
-      <c r="G23">
         <v>0.0001218272861797794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -4216,22 +3759,19 @@
         <v>0.08068091769840323</v>
       </c>
       <c r="D24">
-        <v>2.558587946869723</v>
+        <v>0.8020345793726475</v>
       </c>
       <c r="E24">
-        <v>2.230073577612183</v>
+        <v>1.100422229297471</v>
       </c>
       <c r="F24">
-        <v>3.005434738681628</v>
-      </c>
-      <c r="G24">
         <v>0.4388901377417045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -4241,22 +3781,19 @@
         <v>0.08923818634400434</v>
       </c>
       <c r="D25">
-        <v>2.175629503063572</v>
+        <v>0.652575665828468</v>
       </c>
       <c r="E25">
-        <v>1.920480981430002</v>
+        <v>0.9259054259935763</v>
       </c>
       <c r="F25">
-        <v>2.52415265945455</v>
-      </c>
-      <c r="G25">
         <v>0.004768316940299814</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -4266,22 +3803,19 @@
         <v>0.1531358388416278</v>
       </c>
       <c r="D26">
-        <v>2.085348853609248</v>
+        <v>0.5443598538543117</v>
       </c>
       <c r="E26">
-        <v>1.72350473425337</v>
+        <v>0.9922317952722587</v>
       </c>
       <c r="F26">
-        <v>2.697247464108634</v>
-      </c>
-      <c r="G26">
         <v>0.04433865826419481</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -4291,22 +3825,19 @@
         <v>0.1227527258152402</v>
       </c>
       <c r="D27">
-        <v>1.820224664863028</v>
+        <v>0.4708680152368606</v>
       </c>
       <c r="E27">
-        <v>1.601383615488574</v>
+        <v>0.7618971621943881</v>
       </c>
       <c r="F27">
-        <v>2.142336727806093</v>
-      </c>
-      <c r="G27">
         <v>2.995085475033571E-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -4316,22 +3847,19 @@
         <v>0.07145763538940517</v>
       </c>
       <c r="D28">
-        <v>3.230712326493844</v>
+        <v>1.019427849647814</v>
       </c>
       <c r="E28">
-        <v>2.771608533427868</v>
+        <v>1.349022885518241</v>
       </c>
       <c r="F28">
-        <v>3.853658225192744</v>
-      </c>
-      <c r="G28">
         <v>0.02580386686423532</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -4341,22 +3869,19 @@
         <v>0.08672931410928535</v>
       </c>
       <c r="D29">
-        <v>2.293334077641534</v>
+        <v>0.700244168942459</v>
       </c>
       <c r="E29">
-        <v>2.01424446337275</v>
+        <v>0.9838155494862496</v>
       </c>
       <c r="F29">
-        <v>2.67464202639939</v>
-      </c>
-      <c r="G29">
         <v>0.03171041525027309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -4366,22 +3891,19 @@
         <v>0.09815397835563454</v>
       </c>
       <c r="D30">
-        <v>2.128994957979102</v>
+        <v>0.6233943547616458</v>
       </c>
       <c r="E30">
-        <v>1.865248624177482</v>
+        <v>0.9159642605263167</v>
       </c>
       <c r="F30">
-        <v>2.499183954845333</v>
-      </c>
-      <c r="G30">
         <v>0.004318858332197501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -4391,15 +3913,12 @@
         <v>0.08768371010287844</v>
       </c>
       <c r="D31">
-        <v>2.266942292991542</v>
+        <v>0.68918845755331</v>
       </c>
       <c r="E31">
-        <v>1.99209820481533</v>
+        <v>0.9719123902003668</v>
       </c>
       <c r="F31">
-        <v>2.642994065356884</v>
-      </c>
-      <c r="G31">
         <v>0.02232619240603927</v>
       </c>
     </row>
@@ -4410,7 +3929,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4434,20 +3953,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -4466,15 +3980,12 @@
         <v>0.03481724134005364</v>
       </c>
       <c r="D2">
-        <v>2.666206164993198</v>
+        <v>0.9159615565482955</v>
       </c>
       <c r="E2">
-        <v>2.499177197115984</v>
+        <v>1.049920995185361</v>
       </c>
       <c r="F2">
-        <v>2.857425358784431</v>
-      </c>
-      <c r="G2">
         <v>0.5747987493141127</v>
       </c>
     </row>
@@ -4491,15 +4002,12 @@
         <v>0.03447526489710505</v>
       </c>
       <c r="D3">
-        <v>3.575130796019265</v>
+        <v>1.190752395557813</v>
       </c>
       <c r="E3">
-        <v>3.289555323321927</v>
+        <v>1.363071361487804</v>
       </c>
       <c r="F3">
-        <v>3.908178315584801</v>
-      </c>
-      <c r="G3">
         <v>2.276715430221567E-12</v>
       </c>
     </row>
@@ -4516,15 +4024,12 @@
         <v>0.1197754909607919</v>
       </c>
       <c r="D4">
-        <v>2.544919761680807</v>
+        <v>0.7386332972506371</v>
       </c>
       <c r="E4">
-        <v>2.093072950247008</v>
+        <v>1.181291409917043</v>
       </c>
       <c r="F4">
-        <v>3.258579648901927</v>
-      </c>
-      <c r="G4">
         <v>0.5692515805801192</v>
       </c>
     </row>
@@ -4541,15 +4046,12 @@
         <v>0.1199660474341556</v>
       </c>
       <c r="D5">
-        <v>2.449047437002169</v>
+        <v>0.7080042413148924</v>
       </c>
       <c r="E5">
-        <v>2.029935950980663</v>
+        <v>1.133152764388391</v>
       </c>
       <c r="F5">
-        <v>3.105431777172554</v>
-      </c>
-      <c r="G5">
         <v>0.3585431981411766</v>
       </c>
     </row>
@@ -4566,15 +4068,12 @@
         <v>0.1263160791450821</v>
       </c>
       <c r="D6">
-        <v>1.533621715488832</v>
+        <v>0.3338398897923023</v>
       </c>
       <c r="E6">
-        <v>1.39631956066116</v>
+        <v>0.5477751311017494</v>
       </c>
       <c r="F6">
-        <v>1.729401043792753</v>
-      </c>
-      <c r="G6">
         <v>1.83959992935721E-11</v>
       </c>
     </row>
@@ -4591,15 +4090,12 @@
         <v>0.04723010448335668</v>
       </c>
       <c r="D7">
-        <v>2.240828612970109</v>
+        <v>0.7355019376568551</v>
       </c>
       <c r="E7">
-        <v>2.086529037203358</v>
+        <v>0.8851098451547801</v>
       </c>
       <c r="F7">
-        <v>2.423250559199412</v>
-      </c>
-      <c r="G7">
         <v>5.572165132181543E-06</v>
       </c>
     </row>
@@ -4616,15 +4112,12 @@
         <v>0.06962324225466232</v>
       </c>
       <c r="D8">
-        <v>5.363822661957465</v>
+        <v>1.465399184808266</v>
       </c>
       <c r="E8">
-        <v>4.329271074659085</v>
+        <v>1.925287342438801</v>
       </c>
       <c r="F8">
-        <v>6.857118724062286</v>
-      </c>
-      <c r="G8">
         <v>1.011946433142233E-13</v>
       </c>
     </row>
@@ -4641,15 +4134,12 @@
         <v>0.07304197670056174</v>
       </c>
       <c r="D9">
-        <v>4.121382653284112</v>
+        <v>1.227272419802349</v>
       </c>
       <c r="E9">
-        <v>3.411910573241924</v>
+        <v>1.634185213309013</v>
       </c>
       <c r="F9">
-        <v>5.125280285122358</v>
-      </c>
-      <c r="G9">
         <v>1.922067781436226E-06</v>
       </c>
     </row>
@@ -4666,22 +4156,19 @@
         <v>0.04092316018432715</v>
       </c>
       <c r="D10">
-        <v>2.560423889574518</v>
+        <v>0.8677009633289271</v>
       </c>
       <c r="E10">
-        <v>2.381429561201782</v>
+        <v>1.018697663511476</v>
       </c>
       <c r="F10">
-        <v>2.769585481993344</v>
-      </c>
-      <c r="G10">
         <v>0.131711333398144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -4691,22 +4178,19 @@
         <v>0.03863873140510912</v>
       </c>
       <c r="D11">
-        <v>1.913187805361903</v>
+        <v>0.601448488915207</v>
       </c>
       <c r="E11">
-        <v>1.824760031710408</v>
+        <v>0.6998165845573511</v>
       </c>
       <c r="F11">
-        <v>2.013383387996733</v>
-      </c>
-      <c r="G11">
         <v>5.939100566630084E-29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -4716,22 +4200,19 @@
         <v>0.04590642445695048</v>
       </c>
       <c r="D12">
-        <v>1.527736611447135</v>
+        <v>0.3873183774151373</v>
       </c>
       <c r="E12">
-        <v>1.473025394642631</v>
+        <v>0.4636900470329502</v>
       </c>
       <c r="F12">
-        <v>1.589930090510231</v>
-      </c>
-      <c r="G12">
         <v>7.046031728373541E-77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -4741,22 +4222,19 @@
         <v>0.05162662541187008</v>
       </c>
       <c r="D13">
-        <v>1.337312094424268</v>
+        <v>0.2626868935152131</v>
       </c>
       <c r="E13">
-        <v>1.300419485427492</v>
+        <v>0.3216156793421919</v>
       </c>
       <c r="F13">
-        <v>1.379354559625522</v>
-      </c>
-      <c r="G13">
         <v>1.664879575350219E-123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -4766,15 +4244,12 @@
         <v>0.09123693534491023</v>
       </c>
       <c r="D14">
-        <v>1.116771342976443</v>
+        <v>0.09235577328351996</v>
       </c>
       <c r="E14">
-        <v>1.096754948787719</v>
+        <v>0.1320695951445615</v>
       </c>
       <c r="F14">
-        <v>1.141187737629209</v>
-      </c>
-      <c r="G14">
         <v>1.19508867707852E-125</v>
       </c>
     </row>
@@ -4791,15 +4266,12 @@
         <v>0.03983717777862868</v>
       </c>
       <c r="D15">
-        <v>3.482263218881992</v>
+        <v>1.153960477344516</v>
       </c>
       <c r="E15">
-        <v>3.170725662618477</v>
+        <v>1.349016264694841</v>
       </c>
       <c r="F15">
-        <v>3.853632710886654</v>
-      </c>
-      <c r="G15">
         <v>2.842537770609449E-08</v>
       </c>
     </row>
@@ -4816,22 +4288,19 @@
         <v>0.04097708405433893</v>
       </c>
       <c r="D16">
-        <v>6.473938216455726</v>
+        <v>1.723626937765953</v>
       </c>
       <c r="E16">
-        <v>5.604819977251528</v>
+        <v>2.023999092176441</v>
       </c>
       <c r="F16">
-        <v>7.56853174959076</v>
-      </c>
-      <c r="G16">
         <v>5.763241940705809E-52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -4841,22 +4310,19 @@
         <v>0.09678423885053285</v>
       </c>
       <c r="D17">
-        <v>3.074155158503408</v>
+        <v>0.9289655785520076</v>
       </c>
       <c r="E17">
-        <v>2.53188878249451</v>
+        <v>1.357635498820517</v>
       </c>
       <c r="F17">
-        <v>3.886991631105333</v>
-      </c>
-      <c r="G17">
         <v>0.2306087421220102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -4866,22 +4332,19 @@
         <v>0.09712106945848888</v>
       </c>
       <c r="D18">
-        <v>1.892811482745863</v>
+        <v>0.527454776320167</v>
       </c>
       <c r="E18">
-        <v>1.694613644191122</v>
+        <v>0.7718666481673008</v>
       </c>
       <c r="F18">
-        <v>2.163801542564838</v>
-      </c>
-      <c r="G18">
         <v>3.762991034408527E-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -4891,22 +4354,19 @@
         <v>0.09833149858709438</v>
       </c>
       <c r="D19">
-        <v>2.110974375229733</v>
+        <v>0.6161672797281402</v>
       </c>
       <c r="E19">
-        <v>1.851816926818826</v>
+        <v>0.905975679220868</v>
       </c>
       <c r="F19">
-        <v>2.474344912630672</v>
-      </c>
-      <c r="G19">
         <v>0.003039523963512241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -4916,22 +4376,19 @@
         <v>0.07783785283842733</v>
       </c>
       <c r="D20">
-        <v>2.575692854546007</v>
+        <v>0.8122369026117233</v>
       </c>
       <c r="E20">
-        <v>2.252941966084567</v>
+        <v>1.102068055727234</v>
       </c>
       <c r="F20">
-        <v>3.010385235319111</v>
-      </c>
-      <c r="G20">
         <v>0.4767434874596364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -4941,22 +4398,19 @@
         <v>0.08000181717666578</v>
       </c>
       <c r="D21">
-        <v>4.003726501880547</v>
+        <v>1.18588359939938</v>
       </c>
       <c r="E21">
-        <v>3.27357807554403</v>
+        <v>1.622751790802456</v>
       </c>
       <c r="F21">
-        <v>5.067014513472886</v>
-      </c>
-      <c r="G21">
         <v>4.320931664825587E-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -4966,22 +4420,19 @@
         <v>0.08219456390490332</v>
       </c>
       <c r="D22">
-        <v>2.551620353580466</v>
+        <v>0.7973373121433597</v>
       </c>
       <c r="E22">
-        <v>2.219622890128686</v>
+        <v>1.100488385820573</v>
       </c>
       <c r="F22">
-        <v>3.005633574371415</v>
-      </c>
-      <c r="G22">
         <v>0.4265098903684759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -4991,22 +4442,19 @@
         <v>0.07799405780067931</v>
       </c>
       <c r="D23">
-        <v>2.093164773464552</v>
+        <v>0.6339556104618534</v>
       </c>
       <c r="E23">
-        <v>1.885052384052004</v>
+        <v>0.8606974164547323</v>
       </c>
       <c r="F23">
-        <v>2.364809375700913</v>
-      </c>
-      <c r="G23">
         <v>0.0001035303468924523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -5016,22 +4464,19 @@
         <v>0.08064587595705265</v>
       </c>
       <c r="D24">
-        <v>2.549729245835416</v>
+        <v>0.7991284606164225</v>
       </c>
       <c r="E24">
-        <v>2.223602126917211</v>
+        <v>1.096284309399157</v>
       </c>
       <c r="F24">
-        <v>2.993024185119801</v>
-      </c>
-      <c r="G24">
         <v>0.4120647090709642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -5041,22 +4486,19 @@
         <v>0.08916676467586976</v>
       </c>
       <c r="D25">
-        <v>2.167141176445135</v>
+        <v>0.6493847292546053</v>
       </c>
       <c r="E25">
-        <v>1.914362615277585</v>
+        <v>0.9211200253762902</v>
       </c>
       <c r="F25">
-        <v>2.512102433335525</v>
-      </c>
-      <c r="G25">
         <v>0.003963488250677951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -5066,22 +4508,19 @@
         <v>0.1531678390452458</v>
       </c>
       <c r="D26">
-        <v>2.085649173471825</v>
+        <v>0.544432364913023</v>
       </c>
       <c r="E26">
-        <v>1.723629711937422</v>
+        <v>0.9924884666670529</v>
       </c>
       <c r="F26">
-        <v>2.697939859232562</v>
-      </c>
-      <c r="G26">
         <v>0.0445184470549491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -5091,22 +4530,19 @@
         <v>0.1229804417540646</v>
       </c>
       <c r="D27">
-        <v>1.816805919482288</v>
+        <v>0.4691806221063105</v>
       </c>
       <c r="E27">
-        <v>1.598683730300897</v>
+        <v>0.7598448737486729</v>
       </c>
       <c r="F27">
-        <v>2.137944543449005</v>
-      </c>
-      <c r="G27">
         <v>2.76934177424766E-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -5116,22 +4552,19 @@
         <v>0.0714487942247389</v>
       </c>
       <c r="D28">
-        <v>3.243371223348178</v>
+        <v>1.022845088580374</v>
       </c>
       <c r="E28">
-        <v>2.781095983223028</v>
+        <v>1.353498051079334</v>
       </c>
       <c r="F28">
-        <v>3.870942630207004</v>
-      </c>
-      <c r="G28">
         <v>0.02284570247683843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -5141,22 +4574,19 @@
         <v>0.08668414818103475</v>
       </c>
       <c r="D29">
-        <v>2.288340737757246</v>
+        <v>0.698467074767991</v>
       </c>
       <c r="E29">
-        <v>2.010668139943889</v>
+        <v>0.9811450588875186</v>
       </c>
       <c r="F29">
-        <v>2.667508948660581</v>
-      </c>
-      <c r="G29">
         <v>0.02929558019696508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -5166,22 +4596,19 @@
         <v>0.09805366217942001</v>
       </c>
       <c r="D30">
-        <v>2.133377644152348</v>
+        <v>0.6252138120002336</v>
       </c>
       <c r="E30">
-        <v>1.868645453544319</v>
+        <v>0.9182764151418842</v>
       </c>
       <c r="F30">
-        <v>2.504969140105753</v>
-      </c>
-      <c r="G30">
         <v>0.004667921562021741</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -5191,15 +4618,12 @@
         <v>0.08763284006141513</v>
       </c>
       <c r="D31">
-        <v>2.261105848561683</v>
+        <v>0.6870861504878343</v>
       </c>
       <c r="E31">
-        <v>1.987914601834132</v>
+        <v>0.9687544429197696</v>
       </c>
       <c r="F31">
-        <v>2.634660794376157</v>
-      </c>
-      <c r="G31">
         <v>0.02022838186406227</v>
       </c>
     </row>
@@ -5210,7 +4634,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5234,20 +4658,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -5266,15 +4685,12 @@
         <v>0.0784636051601762</v>
       </c>
       <c r="D2">
-        <v>3.530996896820488</v>
+        <v>1.081731135043198</v>
       </c>
       <c r="E2">
-        <v>2.949781603924444</v>
+        <v>1.471331133608282</v>
       </c>
       <c r="F2">
-        <v>4.355028409080781</v>
-      </c>
-      <c r="G2">
         <v>0.003068476455699401</v>
       </c>
     </row>
@@ -5291,15 +4707,12 @@
         <v>0.02526675602805565</v>
       </c>
       <c r="D3">
-        <v>3.473302860816021</v>
+        <v>1.184941458964379</v>
       </c>
       <c r="E3">
-        <v>3.270495357676532</v>
+        <v>1.308325297939022</v>
       </c>
       <c r="F3">
-        <v>3.699972169773387</v>
-      </c>
-      <c r="G3">
         <v>4.653707996070894E-18</v>
       </c>
     </row>
@@ -5316,15 +4729,12 @@
         <v>0.09920406254848994</v>
       </c>
       <c r="D4">
-        <v>2.469699759829611</v>
+        <v>0.7443257935264104</v>
       </c>
       <c r="E4">
-        <v>2.105021737167531</v>
+        <v>1.098162455868913</v>
       </c>
       <c r="F4">
-        <v>2.998650805081225</v>
-      </c>
-      <c r="G4">
         <v>0.309518108748169</v>
       </c>
     </row>
@@ -5341,15 +4751,12 @@
         <v>0.09759957330821867</v>
       </c>
       <c r="D5">
-        <v>2.350613113226649</v>
+        <v>0.7058553921387234</v>
       </c>
       <c r="E5">
-        <v>2.025578608097743</v>
+        <v>1.034874003449244</v>
       </c>
       <c r="F5">
-        <v>2.814751564292515</v>
-      </c>
-      <c r="G5">
         <v>0.107655925544062</v>
       </c>
     </row>
@@ -5366,15 +4773,12 @@
         <v>0.1004862729612657</v>
       </c>
       <c r="D6">
-        <v>1.55880619492453</v>
+        <v>0.3645538389735362</v>
       </c>
       <c r="E6">
-        <v>1.439871450293501</v>
+        <v>0.5405654359906056</v>
       </c>
       <c r="F6">
-        <v>1.716977428595595</v>
-      </c>
-      <c r="G6">
         <v>7.035639136705276E-16</v>
       </c>
     </row>
@@ -5391,15 +4795,12 @@
         <v>0.03914127576036889</v>
       </c>
       <c r="D7">
-        <v>2.214881753277866</v>
+        <v>0.7364701108960076</v>
       </c>
       <c r="E7">
-        <v>2.088550137009391</v>
+        <v>0.858611188903613</v>
       </c>
       <c r="F7">
-        <v>2.359880987884906</v>
-      </c>
-      <c r="G7">
         <v>4.910782996348118E-09</v>
       </c>
     </row>
@@ -5416,15 +4817,12 @@
         <v>0.0619970112993822</v>
       </c>
       <c r="D8">
-        <v>3.62850998785094</v>
+        <v>1.141340758934699</v>
       </c>
       <c r="E8">
-        <v>3.130963419458331</v>
+        <v>1.45536061225382</v>
       </c>
       <c r="F8">
-        <v>4.286028781454273</v>
-      </c>
-      <c r="G8">
         <v>4.295573194502201E-05</v>
       </c>
     </row>
@@ -5441,15 +4839,12 @@
         <v>0.06681815409529608</v>
       </c>
       <c r="D9">
-        <v>3.99141391974631</v>
+        <v>1.214227050253221</v>
       </c>
       <c r="E9">
-        <v>3.367690002911971</v>
+        <v>1.577842347391182</v>
       </c>
       <c r="F9">
-        <v>4.844491796079992</v>
-      </c>
-      <c r="G9">
         <v>1.159015260234993E-06</v>
       </c>
     </row>
@@ -5466,22 +4861,19 @@
         <v>0.03204895392369908</v>
       </c>
       <c r="D10">
-        <v>2.404267953638604</v>
+        <v>0.8238308919039768</v>
       </c>
       <c r="E10">
-        <v>2.279214558897844</v>
+        <v>0.9341232840141674</v>
       </c>
       <c r="F10">
-        <v>2.544981253628772</v>
-      </c>
-      <c r="G10">
         <v>4.409554137616131E-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -5491,22 +4883,19 @@
         <v>0.03253910898172111</v>
       </c>
       <c r="D11">
-        <v>2.13989360209192</v>
+        <v>0.7137483554934151</v>
       </c>
       <c r="E11">
-        <v>2.041629687785135</v>
+        <v>0.8108598123600642</v>
       </c>
       <c r="F11">
-        <v>2.249841596899565</v>
-      </c>
-      <c r="G11">
         <v>4.855765369534978E-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -5516,22 +4905,19 @@
         <v>0.0360003753026941</v>
       </c>
       <c r="D12">
-        <v>1.674856015894287</v>
+        <v>0.4805882593351525</v>
       </c>
       <c r="E12">
-        <v>1.617025352721624</v>
+        <v>0.5534353796717106</v>
       </c>
       <c r="F12">
-        <v>1.739217639554834</v>
-      </c>
-      <c r="G12">
         <v>1.82763619836314E-74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -5541,22 +4927,19 @@
         <v>0.03928094184323594</v>
       </c>
       <c r="D13">
-        <v>1.418527740275056</v>
+        <v>0.323709973659482</v>
       </c>
       <c r="E13">
-        <v>1.382246361126029</v>
+        <v>0.3776028744853218</v>
       </c>
       <c r="F13">
-        <v>1.458783507677871</v>
-      </c>
-      <c r="G13">
         <v>6.583863626451224E-153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -5566,15 +4949,12 @@
         <v>0.05464655566189495</v>
       </c>
       <c r="D14">
-        <v>1.139502072079109</v>
+        <v>0.1173260061590148</v>
       </c>
       <c r="E14">
-        <v>1.124485959290291</v>
+        <v>0.1453566111003666</v>
       </c>
       <c r="F14">
-        <v>1.156451900327611</v>
-      </c>
-      <c r="G14">
         <v>1.775469439112298E-286</v>
       </c>
     </row>
@@ -5591,15 +4971,12 @@
         <v>0.0335663647456046</v>
       </c>
       <c r="D15">
-        <v>2.967542608559826</v>
+        <v>1.018469345651552</v>
       </c>
       <c r="E15">
-        <v>2.768953208345649</v>
+        <v>1.161709684755553</v>
       </c>
       <c r="F15">
-        <v>3.195391721190163</v>
-      </c>
-      <c r="G15">
         <v>0.01224570973510262</v>
       </c>
     </row>
@@ -5616,22 +4993,19 @@
         <v>0.03555975293169417</v>
       </c>
       <c r="D16">
-        <v>4.75156628530151</v>
+        <v>1.453542936506632</v>
       </c>
       <c r="E16">
-        <v>4.278245247000407</v>
+        <v>1.670980682848024</v>
       </c>
       <c r="F16">
-        <v>5.31737990432</v>
-      </c>
-      <c r="G16">
         <v>1.696850923327183E-35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -5641,22 +5015,19 @@
         <v>0.08012893412576566</v>
       </c>
       <c r="D17">
-        <v>2.211840826066334</v>
+        <v>0.678440253529184</v>
       </c>
       <c r="E17">
-        <v>1.970801383189739</v>
+        <v>0.9288339256165555</v>
       </c>
       <c r="F17">
-        <v>2.531555473845069</v>
-      </c>
-      <c r="G17">
         <v>0.003965288291500572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -5666,22 +5037,19 @@
         <v>0.08251321787926756</v>
       </c>
       <c r="D18">
-        <v>2.339780858514607</v>
+        <v>0.7231114402672608</v>
       </c>
       <c r="E18">
-        <v>2.060835411730005</v>
+        <v>0.9992890862489435</v>
       </c>
       <c r="F18">
-        <v>2.716350051272789</v>
-      </c>
-      <c r="G18">
         <v>0.04900129630267412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -5691,22 +5059,19 @@
         <v>0.09034653887043365</v>
       </c>
       <c r="D19">
-        <v>2.728230185185572</v>
+        <v>0.8407603585873958</v>
       </c>
       <c r="E19">
-        <v>2.318128916071394</v>
+        <v>1.198105459269364</v>
       </c>
       <c r="F19">
-        <v>3.313832780657142</v>
-      </c>
-      <c r="G19">
         <v>0.9678061986276024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -5716,22 +5081,19 @@
         <v>0.06708320564690788</v>
       </c>
       <c r="D20">
-        <v>2.438617207240472</v>
+        <v>0.7815923901250055</v>
       </c>
       <c r="E20">
-        <v>2.184948787646903</v>
+        <v>1.016705796552539</v>
       </c>
       <c r="F20">
-        <v>2.764074326747969</v>
-      </c>
-      <c r="G20">
         <v>0.08670306280853232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -5741,22 +5103,19 @@
         <v>0.070995096257482</v>
       </c>
       <c r="D21">
-        <v>3.05662244961815</v>
+        <v>0.9721566184356851</v>
       </c>
       <c r="E21">
-        <v>2.643639637963743</v>
+        <v>1.28413755625649</v>
       </c>
       <c r="F21">
-        <v>3.61155185337816</v>
-      </c>
-      <c r="G21">
         <v>0.1182161928157548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -5766,22 +5125,19 @@
         <v>0.07239080686228028</v>
       </c>
       <c r="D22">
-        <v>2.255328549108925</v>
+        <v>0.7057040999223362</v>
       </c>
       <c r="E22">
-        <v>2.025272177001562</v>
+        <v>0.9372906169728038</v>
       </c>
       <c r="F22">
-        <v>2.553054835744354</v>
-      </c>
-      <c r="G22">
         <v>0.004314421152876062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -5791,22 +5147,19 @@
         <v>0.0671925101372937</v>
       </c>
       <c r="D23">
-        <v>2.098771812366526</v>
+        <v>0.649866445308094</v>
       </c>
       <c r="E23">
-        <v>1.915285016631496</v>
+        <v>0.8457172544772756</v>
       </c>
       <c r="F23">
-        <v>2.32964816604266</v>
-      </c>
-      <c r="G23">
         <v>8.507763230187238E-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -5816,22 +5169,19 @@
         <v>0.07129473765952545</v>
       </c>
       <c r="D24">
-        <v>2.20933461361716</v>
+        <v>0.6893049595669315</v>
       </c>
       <c r="E24">
-        <v>1.992330301787142</v>
+        <v>0.9115843889835917</v>
       </c>
       <c r="F24">
-        <v>2.48826178646894</v>
-      </c>
-      <c r="G24">
         <v>0.001122950994248958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -5841,22 +5191,19 @@
         <v>0.07648406025624201</v>
       </c>
       <c r="D25">
-        <v>1.947564540332749</v>
+        <v>0.573775063108696</v>
       </c>
       <c r="E25">
-        <v>1.774954986892602</v>
+        <v>0.7743947807678804</v>
       </c>
       <c r="F25">
-        <v>2.169278840536239</v>
-      </c>
-      <c r="G25">
         <v>1.160741020106775E-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -5866,22 +5213,19 @@
         <v>0.1085749168181338</v>
       </c>
       <c r="D26">
-        <v>1.887814951276993</v>
+        <v>0.5136080319129065</v>
       </c>
       <c r="E26">
-        <v>1.671310471061836</v>
+        <v>0.786122129390576</v>
       </c>
       <c r="F26">
-        <v>2.194868485825269</v>
-      </c>
-      <c r="G26">
         <v>2.981968114837247E-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -5891,22 +5235,19 @@
         <v>0.1011247673671022</v>
       </c>
       <c r="D27">
-        <v>1.499182244291368</v>
+        <v>0.3321101564032986</v>
       </c>
       <c r="E27">
-        <v>1.393906387769907</v>
+        <v>0.4936917234939883</v>
       </c>
       <c r="F27">
-        <v>1.638353417068761</v>
-      </c>
-      <c r="G27">
         <v>4.495462380238685E-19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -5916,22 +5257,19 @@
         <v>0.06350164743330243</v>
       </c>
       <c r="D28">
-        <v>2.499112835538046</v>
+        <v>0.8087354934239883</v>
       </c>
       <c r="E28">
-        <v>2.245067288664226</v>
+        <v>1.037345834626582</v>
       </c>
       <c r="F28">
-        <v>2.821717761049833</v>
-      </c>
-      <c r="G28">
         <v>0.1667589215817071</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -5941,22 +5279,19 @@
         <v>0.07246081296332875</v>
       </c>
       <c r="D29">
-        <v>2.12308536424545</v>
+        <v>0.6531829012235973</v>
       </c>
       <c r="E29">
-        <v>1.921647519603388</v>
+        <v>0.8677719897952141</v>
       </c>
       <c r="F29">
-        <v>2.381598711735237</v>
-      </c>
-      <c r="G29">
         <v>9.001824476607432E-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -5966,22 +5301,19 @@
         <v>0.08379995576147239</v>
       </c>
       <c r="D30">
-        <v>1.889316031369705</v>
+        <v>0.5398405108183375</v>
       </c>
       <c r="E30">
-        <v>1.715733199478382</v>
+        <v>0.7497943551502648</v>
       </c>
       <c r="F30">
-        <v>2.116564711223059</v>
-      </c>
-      <c r="G30">
         <v>6.937077366881116E-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -5991,15 +5323,12 @@
         <v>0.07559774575072328</v>
       </c>
       <c r="D31">
-        <v>1.822755110602317</v>
+        <v>0.5176640935970873</v>
       </c>
       <c r="E31">
-        <v>1.67810317592826</v>
+        <v>0.6962412702576978</v>
       </c>
       <c r="F31">
-        <v>2.006197762667848</v>
-      </c>
-      <c r="G31">
         <v>1.557135673433198E-11</v>
       </c>
     </row>
@@ -6010,7 +5339,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6034,20 +5363,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -6066,15 +5390,12 @@
         <v>0.07050226202902292</v>
       </c>
       <c r="D2">
-        <v>3.763981142738185</v>
+        <v>1.154394255176346</v>
       </c>
       <c r="E2">
-        <v>3.17210135147183</v>
+        <v>1.521914918713825</v>
       </c>
       <c r="F2">
-        <v>4.580989023063189</v>
-      </c>
-      <c r="G2">
         <v>6.465733524146968E-05</v>
       </c>
     </row>
@@ -6091,15 +5412,12 @@
         <v>0.02527561354775479</v>
       </c>
       <c r="D3">
-        <v>3.472637764404339</v>
+        <v>1.184738636247337</v>
       </c>
       <c r="E3">
-        <v>3.269832094186738</v>
+        <v>1.308146780062394</v>
       </c>
       <c r="F3">
-        <v>3.699311717551075</v>
-      </c>
-      <c r="G3">
         <v>5.039443902116364E-18</v>
       </c>
     </row>
@@ -6116,15 +5434,12 @@
         <v>0.09943288604129161</v>
       </c>
       <c r="D4">
-        <v>2.473530451169594</v>
+        <v>0.7452674229115041</v>
       </c>
       <c r="E4">
-        <v>2.107004821009991</v>
+        <v>1.1005385314823</v>
       </c>
       <c r="F4">
-        <v>3.005784297634938</v>
-      </c>
-      <c r="G4">
         <v>0.3189242734033125</v>
       </c>
     </row>
@@ -6141,15 +5456,12 @@
         <v>0.09792838657403943</v>
       </c>
       <c r="D5">
-        <v>2.360337086826296</v>
+        <v>0.7088078118240073</v>
       </c>
       <c r="E5">
-        <v>2.031567803212617</v>
+        <v>1.040543088980765</v>
       </c>
       <c r="F5">
-        <v>2.830753948244403</v>
-      </c>
-      <c r="G5">
         <v>0.1201314636514778</v>
       </c>
     </row>
@@ -6166,15 +5478,12 @@
         <v>0.1008281077951796</v>
       </c>
       <c r="D6">
-        <v>1.564203400898452</v>
+        <v>0.3671462080867222</v>
       </c>
       <c r="E6">
-        <v>1.44360897099168</v>
+        <v>0.5451394954499608</v>
       </c>
       <c r="F6">
-        <v>1.724848974179082</v>
-      </c>
-      <c r="G6">
         <v>1.638580088300296E-15</v>
       </c>
     </row>
@@ -6191,15 +5500,12 @@
         <v>0.03915843611583363</v>
       </c>
       <c r="D7">
-        <v>2.217182595267266</v>
+        <v>0.7374068963728473</v>
       </c>
       <c r="E7">
-        <v>2.090507577152993</v>
+        <v>0.8597611752408606</v>
       </c>
       <c r="F7">
-        <v>2.36259637981106</v>
-      </c>
-      <c r="G7">
         <v>6.086542004242378E-09</v>
       </c>
     </row>
@@ -6216,15 +5522,12 @@
         <v>0.06240940465486832</v>
       </c>
       <c r="D8">
-        <v>3.590804441031187</v>
+        <v>1.131175480422483</v>
       </c>
       <c r="E8">
-        <v>3.099297523291814</v>
+        <v>1.444732386239678</v>
       </c>
       <c r="F8">
-        <v>4.240717116698844</v>
-      </c>
-      <c r="G8">
         <v>8.364425864187357E-05</v>
       </c>
     </row>
@@ -6241,15 +5544,12 @@
         <v>0.06684422378332361</v>
       </c>
       <c r="D9">
-        <v>3.996844098278561</v>
+        <v>1.215357584853762</v>
       </c>
       <c r="E9">
-        <v>3.37149944593199</v>
+        <v>1.57947285209841</v>
       </c>
       <c r="F9">
-        <v>4.852397205910192</v>
-      </c>
-      <c r="G9">
         <v>1.086500760448587E-06</v>
       </c>
     </row>
@@ -6266,22 +5566,19 @@
         <v>0.03207275639528648</v>
       </c>
       <c r="D10">
-        <v>2.403140088341775</v>
+        <v>0.8233518264581177</v>
       </c>
       <c r="E10">
-        <v>2.278122927461305</v>
+        <v>0.9336672026946753</v>
       </c>
       <c r="F10">
-        <v>2.54382079987129</v>
-      </c>
-      <c r="G10">
         <v>4.157741985291152E-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -6291,22 +5588,19 @@
         <v>0.03259144464257985</v>
       </c>
       <c r="D11">
-        <v>2.140503409028896</v>
+        <v>0.7139424344862461</v>
       </c>
       <c r="E11">
-        <v>2.042025963671843</v>
+        <v>0.8112467272163247</v>
       </c>
       <c r="F11">
-        <v>2.250712262463497</v>
-      </c>
-      <c r="G11">
         <v>5.997729857101281E-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -6316,22 +5610,19 @@
         <v>0.03603431572173314</v>
       </c>
       <c r="D12">
-        <v>1.677234994978259</v>
+        <v>0.4818788890796817</v>
       </c>
       <c r="E12">
-        <v>1.61911368107897</v>
+        <v>0.5549954837412316</v>
       </c>
       <c r="F12">
-        <v>1.741933117735594</v>
-      </c>
-      <c r="G12">
         <v>9.729417749154415E-74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -6341,22 +5632,19 @@
         <v>0.03933344086362974</v>
       </c>
       <c r="D13">
-        <v>1.420676374543806</v>
+        <v>0.325077900472473</v>
       </c>
       <c r="E13">
-        <v>1.384138466821583</v>
+        <v>0.3792765934081666</v>
       </c>
       <c r="F13">
-        <v>1.461227145650108</v>
-      </c>
-      <c r="G13">
         <v>2.549411267096895E-151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -6366,15 +5654,12 @@
         <v>0.05467699524120356</v>
       </c>
       <c r="D14">
-        <v>1.140453568171671</v>
+        <v>0.1180688387472776</v>
       </c>
       <c r="E14">
-        <v>1.12532157442855</v>
+        <v>0.1462943722239422</v>
       </c>
       <c r="F14">
-        <v>1.157536884609552</v>
-      </c>
-      <c r="G14">
         <v>1.675371886131492E-284</v>
       </c>
     </row>
@@ -6391,15 +5676,12 @@
         <v>0.03358005095815386</v>
       </c>
       <c r="D15">
-        <v>2.961881132361167</v>
+        <v>1.01665405059133</v>
       </c>
       <c r="E15">
-        <v>2.763931300765621</v>
+        <v>1.159701303409495</v>
       </c>
       <c r="F15">
-        <v>3.188980596210874</v>
-      </c>
-      <c r="G15">
         <v>0.01421994937434981</v>
       </c>
     </row>
@@ -6416,22 +5698,19 @@
         <v>0.03565227938753383</v>
       </c>
       <c r="D16">
-        <v>4.707747314687341</v>
+        <v>1.444639903911736</v>
       </c>
       <c r="E16">
-        <v>4.240324943442576</v>
+        <v>1.661348353632067</v>
       </c>
       <c r="F16">
-        <v>5.266407038340477</v>
-      </c>
-      <c r="G16">
         <v>1.972986535250226E-34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -6441,22 +5720,19 @@
         <v>0.08001252324440435</v>
       </c>
       <c r="D17">
-        <v>2.210165796870915</v>
+        <v>0.6779474636414711</v>
       </c>
       <c r="E17">
-        <v>1.96983043145466</v>
+        <v>0.9277357717165874</v>
       </c>
       <c r="F17">
-        <v>2.528776962224394</v>
-      </c>
-      <c r="G17">
         <v>0.003767182830576137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -6466,22 +5742,19 @@
         <v>0.08241981678886201</v>
       </c>
       <c r="D18">
-        <v>2.33745057756445</v>
+        <v>0.7223960558996652</v>
       </c>
       <c r="E18">
-        <v>2.059361649508346</v>
+        <v>0.9979349996089294</v>
       </c>
       <c r="F18">
-        <v>2.712674367117792</v>
-      </c>
-      <c r="G18">
         <v>0.0471403031523588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -6491,22 +5764,19 @@
         <v>0.09022752798333813</v>
       </c>
       <c r="D19">
-        <v>2.730043223300822</v>
+        <v>0.8415131522568474</v>
       </c>
       <c r="E19">
-        <v>2.319874645849106</v>
+        <v>1.198618846494981</v>
       </c>
       <c r="F19">
-        <v>3.315534496856867</v>
-      </c>
-      <c r="G19">
         <v>0.9619182438266137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -6516,22 +5786,19 @@
         <v>0.06692630374149071</v>
       </c>
       <c r="D20">
-        <v>2.440775259215276</v>
+        <v>0.7826086143733494</v>
       </c>
       <c r="E20">
-        <v>2.187170314179682</v>
+        <v>1.017401707588729</v>
       </c>
       <c r="F20">
-        <v>2.765998546041869</v>
-      </c>
-      <c r="G20">
         <v>0.08870831838139684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -6541,22 +5808,19 @@
         <v>0.07085418870934304</v>
       </c>
       <c r="D21">
-        <v>3.05869801333658</v>
+        <v>0.9730159531893576</v>
       </c>
       <c r="E21">
-        <v>2.645912385766558</v>
+        <v>1.284562867979285</v>
       </c>
       <c r="F21">
-        <v>3.613088215412116</v>
-      </c>
-      <c r="G21">
         <v>0.115491676137536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -6566,22 +5830,19 @@
         <v>0.07224366083710847</v>
       </c>
       <c r="D22">
-        <v>2.258195424671486</v>
+        <v>0.7070102886337716</v>
       </c>
       <c r="E22">
-        <v>2.027919293096966</v>
+        <v>0.9384839156822091</v>
       </c>
       <c r="F22">
-        <v>2.556103211234427</v>
-      </c>
-      <c r="G22">
         <v>0.00453363594978644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -6591,22 +5852,19 @@
         <v>0.06704296575989163</v>
       </c>
       <c r="D23">
-        <v>2.101011527993092</v>
+        <v>0.6509922100790251</v>
       </c>
       <c r="E23">
-        <v>1.917442391149782</v>
+        <v>0.8466857629691505</v>
       </c>
       <c r="F23">
-        <v>2.331905543042497</v>
-      </c>
-      <c r="G23">
         <v>8.97510177419647E-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -6616,22 +5874,19 @@
         <v>0.07113827669549355</v>
       </c>
       <c r="D24">
-        <v>2.211111427259487</v>
+        <v>0.6902156677712585</v>
       </c>
       <c r="E24">
-        <v>1.994145559798428</v>
+        <v>0.9122290558700039</v>
       </c>
       <c r="F24">
-        <v>2.489866403613598</v>
-      </c>
-      <c r="G24">
         <v>0.001151277773733293</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -6641,22 +5896,19 @@
         <v>0.07637762162114586</v>
       </c>
       <c r="D25">
-        <v>1.950112176320576</v>
+        <v>0.5750202776619019</v>
       </c>
       <c r="E25">
-        <v>1.777166563331384</v>
+        <v>0.7757516123044486</v>
       </c>
       <c r="F25">
-        <v>2.172224184194406</v>
-      </c>
-      <c r="G25">
         <v>1.282386122507743E-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -6666,22 +5918,19 @@
         <v>0.1085307347894745</v>
       </c>
       <c r="D26">
-        <v>1.88725547335108</v>
+        <v>0.5134129093303679</v>
       </c>
       <c r="E26">
-        <v>1.670984392460182</v>
+        <v>0.7856873772137954</v>
       </c>
       <c r="F26">
-        <v>2.193914469368702</v>
-      </c>
-      <c r="G26">
         <v>2.904453757477499E-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -6691,22 +5940,19 @@
         <v>0.1009776074438197</v>
       </c>
       <c r="D27">
-        <v>1.500103008206179</v>
+        <v>0.3327097018001885</v>
       </c>
       <c r="E27">
-        <v>1.394742348501553</v>
+        <v>0.4942977139473764</v>
       </c>
       <c r="F27">
-        <v>1.639346544481254</v>
-      </c>
-      <c r="G27">
         <v>4.575989992072059E-19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -6716,22 +5962,19 @@
         <v>0.06334948001681762</v>
       </c>
       <c r="D28">
-        <v>2.497669138278335</v>
+        <v>0.8084663829565817</v>
       </c>
       <c r="E28">
-        <v>2.244463198843907</v>
+        <v>1.036382215103926</v>
       </c>
       <c r="F28">
-        <v>2.819000008377929</v>
-      </c>
-      <c r="G28">
         <v>0.1627220978644038</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -6741,22 +5984,19 @@
         <v>0.07231324639162662</v>
       </c>
       <c r="D29">
-        <v>2.12470756033207</v>
+        <v>0.6540347082056693</v>
       </c>
       <c r="E29">
-        <v>1.923285089725485</v>
+        <v>0.86840111305224</v>
       </c>
       <c r="F29">
-        <v>2.383097502286254</v>
-      </c>
-      <c r="G29">
         <v>9.229207313132037E-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -6766,22 +6006,19 @@
         <v>0.0837502731774826</v>
       </c>
       <c r="D30">
-        <v>1.88595015571615</v>
+        <v>0.5383799276630306</v>
       </c>
       <c r="E30">
-        <v>1.713229057667071</v>
+        <v>0.7476200939911094</v>
       </c>
       <c r="F30">
-        <v>2.111967746092952</v>
-      </c>
-      <c r="G30">
         <v>5.653310520070563E-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -6791,15 +6028,12 @@
         <v>0.07545051855744393</v>
       </c>
       <c r="D31">
-        <v>1.823899988576959</v>
+        <v>0.5183550901367565</v>
       </c>
       <c r="E31">
-        <v>1.679263140135507</v>
+        <v>0.6967683595803874</v>
       </c>
       <c r="F31">
-        <v>2.00725548682082</v>
-      </c>
-      <c r="G31">
         <v>1.564469098330849E-11</v>
       </c>
     </row>
@@ -6810,7 +6044,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6834,20 +6068,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -6866,15 +6095,12 @@
         <v>0.08081392232002452</v>
       </c>
       <c r="D2">
-        <v>3.416311648986869</v>
+        <v>1.048577524613943</v>
       </c>
       <c r="E2">
-        <v>2.853589069452803</v>
+        <v>1.439438986097295</v>
       </c>
       <c r="F2">
-        <v>4.218328612043662</v>
-      </c>
-      <c r="G2">
         <v>0.01087437125663591</v>
       </c>
     </row>
@@ -6891,15 +6117,12 @@
         <v>0.1868155805369665</v>
       </c>
       <c r="D3">
-        <v>4.93465553384794</v>
+        <v>1.10681486599374</v>
       </c>
       <c r="E3">
-        <v>3.024708931899887</v>
+        <v>2.302208868655568</v>
       </c>
       <c r="F3">
-        <v>9.996238464250238</v>
-      </c>
-      <c r="G3">
         <v>0.01231406970723822</v>
       </c>
     </row>
@@ -6916,15 +6139,12 @@
         <v>0.3366369278808941</v>
       </c>
       <c r="D4">
-        <v>2.4020922140593</v>
+        <v>0.4529975976431974</v>
       </c>
       <c r="E4">
-        <v>1.573020407553359</v>
+        <v>1.695311406601697</v>
       </c>
       <c r="F4">
-        <v>5.448342350842608</v>
-      </c>
-      <c r="G4">
         <v>0.6949793395730903</v>
       </c>
     </row>
@@ -6941,15 +6161,12 @@
         <v>0.02528325020479212</v>
       </c>
       <c r="D5">
-        <v>3.474884654848026</v>
+        <v>1.185336443803911</v>
       </c>
       <c r="E5">
-        <v>3.271787408914101</v>
+        <v>1.308846044796846</v>
       </c>
       <c r="F5">
-        <v>3.701899420416139</v>
-      </c>
-      <c r="G5">
         <v>4.309495158040584E-18</v>
       </c>
     </row>
@@ -6966,15 +6183,12 @@
         <v>0.1002352822478318</v>
       </c>
       <c r="D6">
-        <v>2.467641248517284</v>
+        <v>0.7421376410264401</v>
       </c>
       <c r="E6">
-        <v>2.100420664351181</v>
+        <v>1.099369607469777</v>
       </c>
       <c r="F6">
-        <v>3.002272816919866</v>
-      </c>
-      <c r="G6">
         <v>0.3101134551903602</v>
       </c>
     </row>
@@ -6991,15 +6205,12 @@
         <v>0.09850680640557924</v>
       </c>
       <c r="D7">
-        <v>2.348868562598082</v>
+        <v>0.7039891807828571</v>
       </c>
       <c r="E7">
-        <v>2.021801975390621</v>
+        <v>1.035815419364313</v>
       </c>
       <c r="F7">
-        <v>2.817402663909992</v>
-      </c>
-      <c r="G7">
         <v>0.108973444404129</v>
       </c>
     </row>
@@ -7016,15 +6227,12 @@
         <v>0.1013409303272124</v>
       </c>
       <c r="D8">
-        <v>1.558775828260369</v>
+        <v>0.3639276484753925</v>
       </c>
       <c r="E8">
-        <v>1.43897009871113</v>
+        <v>0.5414480327945025</v>
       </c>
       <c r="F8">
-        <v>1.718493496326288</v>
-      </c>
-      <c r="G8">
         <v>1.21952533250429E-15</v>
       </c>
     </row>
@@ -7041,15 +6249,12 @@
         <v>0.03914816959740077</v>
       </c>
       <c r="D9">
-        <v>2.215538100615609</v>
+        <v>0.7367345630137859</v>
       </c>
       <c r="E9">
-        <v>2.089102531553944</v>
+        <v>0.8589427157421309</v>
       </c>
       <c r="F9">
-        <v>2.360663481469743</v>
-      </c>
-      <c r="G9">
         <v>5.231247337790515E-09</v>
       </c>
     </row>
@@ -7066,15 +6271,12 @@
         <v>0.0618983319501769</v>
       </c>
       <c r="D10">
-        <v>3.626790993845621</v>
+        <v>1.14114183006476</v>
       </c>
       <c r="E10">
-        <v>3.130340642389699</v>
+        <v>1.454544147971165</v>
       </c>
       <c r="F10">
-        <v>4.282530820214307</v>
-      </c>
-      <c r="G10">
         <v>4.284794411556802E-05</v>
       </c>
     </row>
@@ -7091,15 +6293,12 @@
         <v>0.06685443038656165</v>
       </c>
       <c r="D11">
-        <v>3.988280514483015</v>
+        <v>1.213451822765365</v>
       </c>
       <c r="E11">
-        <v>3.365080288742915</v>
+        <v>1.577059243179238</v>
       </c>
       <c r="F11">
-        <v>4.840699539209719</v>
-      </c>
-      <c r="G11">
         <v>1.225889287741234E-06</v>
       </c>
     </row>
@@ -7116,22 +6315,19 @@
         <v>0.03203600122358582</v>
       </c>
       <c r="D12">
-        <v>2.402200635095991</v>
+        <v>0.8230439419804939</v>
       </c>
       <c r="E12">
-        <v>2.277421636737625</v>
+        <v>0.9331835940300984</v>
       </c>
       <c r="F12">
-        <v>2.542590883514416</v>
-      </c>
-      <c r="G12">
         <v>3.836021415020234E-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B13">
@@ -7141,22 +6337,19 @@
         <v>0.03254497700785345</v>
       </c>
       <c r="D13">
-        <v>2.140846321809044</v>
+        <v>0.7141577549694651</v>
       </c>
       <c r="E13">
-        <v>2.042465701029618</v>
+        <v>0.8113435805818379</v>
       </c>
       <c r="F13">
-        <v>2.250930262077746</v>
-      </c>
-      <c r="G13">
         <v>5.725847191719511E-17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B14">
@@ -7166,22 +6359,19 @@
         <v>0.03598166471461734</v>
       </c>
       <c r="D14">
-        <v>1.675662517476979</v>
+        <v>0.4810545191467415</v>
       </c>
       <c r="E14">
-        <v>1.61777948245445</v>
+        <v>0.5539316826879004</v>
       </c>
       <c r="F14">
-        <v>1.740081032749756</v>
-      </c>
-      <c r="G14">
         <v>2.450816370769802E-74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B15">
@@ -7191,22 +6381,19 @@
         <v>0.03927097847624963</v>
       </c>
       <c r="D15">
-        <v>1.418920383608648</v>
+        <v>0.3239725484066094</v>
       </c>
       <c r="E15">
-        <v>1.382609351768772</v>
+        <v>0.3778944043416716</v>
       </c>
       <c r="F15">
-        <v>1.459208848621089</v>
-      </c>
-      <c r="G15">
         <v>9.234346723538959E-153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B16">
@@ -7216,15 +6403,12 @@
         <v>0.05460811616116452</v>
       </c>
       <c r="D16">
-        <v>1.139598408195224</v>
+        <v>0.117410803606563</v>
       </c>
       <c r="E16">
-        <v>1.124581316872426</v>
+        <v>0.145439749396874</v>
       </c>
       <c r="F16">
-        <v>1.156548049765391</v>
-      </c>
-      <c r="G16">
         <v>1.109353303442298E-286</v>
       </c>
     </row>
@@ -7241,15 +6425,12 @@
         <v>0.03357439524021456</v>
       </c>
       <c r="D17">
-        <v>2.969749253983683</v>
+        <v>1.019149285771274</v>
       </c>
       <c r="E17">
-        <v>2.770836570935967</v>
+        <v>1.162521854824494</v>
       </c>
       <c r="F17">
-        <v>3.197987976862517</v>
-      </c>
-      <c r="G17">
         <v>0.01157897953252513</v>
       </c>
     </row>
@@ -7266,22 +6447,19 @@
         <v>0.03546536405244569</v>
       </c>
       <c r="D18">
-        <v>4.761152985767717</v>
+        <v>1.455692088443842</v>
       </c>
       <c r="E18">
-        <v>4.287449733437938</v>
+        <v>1.672832209003893</v>
       </c>
       <c r="F18">
-        <v>5.327234292306901</v>
-      </c>
-      <c r="G18">
         <v>7.145673217556842E-36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B19">
@@ -7291,22 +6469,19 @@
         <v>0.08018864213492752</v>
       </c>
       <c r="D19">
-        <v>2.209881729114432</v>
+        <v>0.6776036181987314</v>
       </c>
       <c r="E19">
-        <v>1.969153230670708</v>
+        <v>0.9279056921188167</v>
       </c>
       <c r="F19">
-        <v>2.529206689531647</v>
-      </c>
-      <c r="G19">
         <v>0.003819631070475602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B20">
@@ -7316,22 +6491,19 @@
         <v>0.0825298177312995</v>
       </c>
       <c r="D20">
-        <v>2.337334718026784</v>
+        <v>0.7221981424600332</v>
       </c>
       <c r="E20">
-        <v>2.058954114490505</v>
+        <v>0.9980919301673189</v>
       </c>
       <c r="F20">
-        <v>2.713100102025487</v>
-      </c>
-      <c r="G20">
         <v>0.04735633835561241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B21">
@@ -7341,22 +6513,19 @@
         <v>0.09037656139011989</v>
       </c>
       <c r="D21">
-        <v>2.726554337829593</v>
+        <v>0.8401961839911535</v>
       </c>
       <c r="E21">
-        <v>2.316821455478837</v>
+        <v>1.197442433158733</v>
       </c>
       <c r="F21">
-        <v>3.311636351222799</v>
-      </c>
-      <c r="G21">
         <v>0.9732196179418304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B22">
@@ -7366,22 +6535,19 @@
         <v>0.06710331117561369</v>
       </c>
       <c r="D22">
-        <v>2.437856505177243</v>
+        <v>0.7812880501608316</v>
       </c>
       <c r="E22">
-        <v>2.184283921588937</v>
+        <v>1.016390021657431</v>
       </c>
       <c r="F22">
-        <v>2.763201639261022</v>
-      </c>
-      <c r="G22">
         <v>0.08584155128710036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B23">
@@ -7391,22 +6557,19 @@
         <v>0.0710153253472756</v>
       </c>
       <c r="D23">
-        <v>3.055912794106069</v>
+        <v>0.9719160448570687</v>
       </c>
       <c r="E23">
-        <v>2.643003724610509</v>
+        <v>1.283921603094089</v>
       </c>
       <c r="F23">
-        <v>3.610772011541933</v>
-      </c>
-      <c r="G23">
         <v>0.1190120742246165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B24">
@@ -7416,22 +6579,19 @@
         <v>0.07241298041685358</v>
       </c>
       <c r="D24">
-        <v>2.253679658450551</v>
+        <v>0.7050388316164797</v>
       </c>
       <c r="E24">
-        <v>2.023925275686524</v>
+        <v>0.9364884404615016</v>
       </c>
       <c r="F24">
-        <v>2.551007656332451</v>
-      </c>
-      <c r="G24">
         <v>0.004160201482955574</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B25">
@@ -7441,22 +6601,19 @@
         <v>0.06720828559610424</v>
       </c>
       <c r="D25">
-        <v>2.098183204006856</v>
+        <v>0.6496004768969611</v>
       </c>
       <c r="E25">
-        <v>1.914775679055611</v>
+        <v>0.8454234190985613</v>
       </c>
       <c r="F25">
-        <v>2.328963733551684</v>
-      </c>
-      <c r="G25">
         <v>8.328147163073735E-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B26">
@@ -7466,22 +6623,19 @@
         <v>0.07131977954185879</v>
       </c>
       <c r="D26">
-        <v>2.208128081666203</v>
+        <v>0.6887961358103168</v>
       </c>
       <c r="E26">
-        <v>1.991316814663598</v>
+        <v>0.9110009215479596</v>
       </c>
       <c r="F26">
-        <v>2.48681039020761</v>
-      </c>
-      <c r="G26">
         <v>0.001089721020271231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B27">
@@ -7491,22 +6645,19 @@
         <v>0.07651124844005205</v>
       </c>
       <c r="D27">
-        <v>1.946923228045336</v>
+        <v>0.5734610081154533</v>
       </c>
       <c r="E27">
-        <v>1.774397640939408</v>
+        <v>0.7740534211186409</v>
       </c>
       <c r="F27">
-        <v>2.168538462646889</v>
-      </c>
-      <c r="G27">
         <v>1.132066239861215E-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B28">
@@ -7516,22 +6667,19 @@
         <v>0.1086673953041867</v>
       </c>
       <c r="D28">
-        <v>1.886845856623677</v>
+        <v>0.5130999704222891</v>
       </c>
       <c r="E28">
-        <v>1.670461558240841</v>
+        <v>0.7856292799523087</v>
       </c>
       <c r="F28">
-        <v>2.193787012648575</v>
-      </c>
-      <c r="G28">
         <v>2.931554882810253E-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B29">
@@ -7541,22 +6689,19 @@
         <v>0.10113635347418</v>
       </c>
       <c r="D29">
-        <v>1.498667298326856</v>
+        <v>0.3318208489855311</v>
       </c>
       <c r="E29">
-        <v>1.39350317864076</v>
+        <v>0.4932840683342603</v>
       </c>
       <c r="F29">
-        <v>1.63768566995936</v>
-      </c>
-      <c r="G29">
         <v>4.207470998724607E-19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B30">
@@ -7566,22 +6711,19 @@
         <v>0.0635038923668715</v>
       </c>
       <c r="D30">
-        <v>2.497720577593569</v>
+        <v>0.8082398994969944</v>
       </c>
       <c r="E30">
-        <v>2.243954922613968</v>
+        <v>1.036719277066875</v>
       </c>
       <c r="F30">
-        <v>2.819950346206676</v>
-      </c>
-      <c r="G30">
         <v>0.1638538436130371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B31">
@@ -7591,22 +6733,19 @@
         <v>0.07247349993017685</v>
       </c>
       <c r="D31">
-        <v>2.122589023420648</v>
+        <v>0.6529638095391738</v>
       </c>
       <c r="E31">
-        <v>1.921226548728743</v>
+        <v>0.8675240723115412</v>
       </c>
       <c r="F31">
-        <v>2.381008344959651</v>
-      </c>
-      <c r="G31">
         <v>8.868569455498313E-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B32">
@@ -7616,22 +6755,19 @@
         <v>0.08381275010603628</v>
       </c>
       <c r="D32">
-        <v>1.889839006758171</v>
+        <v>0.5400618079555772</v>
       </c>
       <c r="E32">
-        <v>1.716112928338599</v>
+        <v>0.7501393483165503</v>
       </c>
       <c r="F32">
-        <v>2.117295037555985</v>
-      </c>
-      <c r="G32">
         <v>7.172664444459107E-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B33">
@@ -7641,15 +6777,12 @@
         <v>0.07561831326846173</v>
       </c>
       <c r="D33">
-        <v>1.822151195529899</v>
+        <v>0.5173574988156368</v>
       </c>
       <c r="E33">
-        <v>1.677588757114876</v>
+        <v>0.6958850225346157</v>
       </c>
       <c r="F33">
-        <v>2.005483186573456</v>
-      </c>
-      <c r="G33">
         <v>1.499792591397094E-11</v>
       </c>
     </row>
@@ -7660,7 +6793,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7684,20 +6817,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>conf.low</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CI_low</t>
+          <t>conf.high</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CI_high</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p.value</t>
         </is>
@@ -7716,15 +6844,12 @@
         <v>0.02499998204154686</v>
       </c>
       <c r="D2">
-        <v>3.105787987961978</v>
+        <v>1.079071198861785</v>
       </c>
       <c r="E2">
-        <v>2.941945799099312</v>
+        <v>1.190185731258464</v>
       </c>
       <c r="F2">
-        <v>3.287691777811692</v>
-      </c>
-      <c r="G2">
         <v>5.694379661178774E-07</v>
       </c>
     </row>
@@ -7741,15 +6866,12 @@
         <v>0.02529490541897891</v>
       </c>
       <c r="D3">
-        <v>3.493494287240574</v>
+        <v>1.190392172411663</v>
       </c>
       <c r="E3">
-        <v>3.288370562755829</v>
+        <v>1.314488628280045</v>
       </c>
       <c r="F3">
-        <v>3.722846739863601</v>
-      </c>
-      <c r="G3">
         <v>1.004326806125848E-18</v>
       </c>
     </row>
@@ -7766,15 +6888,12 @@
         <v>0.1001529332215307</v>
       </c>
       <c r="D4">
-        <v>2.432853677195126</v>
+        <v>0.7305903749281304</v>
       </c>
       <c r="E4">
-        <v>2.076306044936868</v>
+        <v>1.081914655663399</v>
       </c>
       <c r="F4">
-        <v>2.950322999350946</v>
-      </c>
-      <c r="G4">
         <v>0.2403980474660335</v>
       </c>
     </row>
@@ -7791,15 +6910,12 @@
         <v>0.0983265578132443</v>
       </c>
       <c r="D5">
-        <v>2.360234402641844</v>
+        <v>0.7082189349519631</v>
       </c>
       <c r="E5">
-        <v>2.03037181209963</v>
+        <v>1.041302782184626</v>
       </c>
       <c r="F5">
-        <v>2.832905269849419</v>
-      </c>
-      <c r="G5">
         <v>0.1215154261606323</v>
       </c>
     </row>
@@ -7816,15 +6932,12 @@
         <v>0.101147312936426</v>
       </c>
       <c r="D6">
-        <v>1.579453375732844</v>
+        <v>0.3748737773079722</v>
       </c>
       <c r="E6">
-        <v>1.454807773275067</v>
+        <v>0.5573103870735426</v>
       </c>
       <c r="F6">
-        <v>1.745970195433995</v>
-      </c>
-      <c r="G6">
         <v>1.077874106717553E-14</v>
       </c>
     </row>
@@ -7841,15 +6954,12 @@
         <v>0.03915938328531395</v>
       </c>
       <c r="D7">
-        <v>2.216082061447294</v>
+        <v>0.736945722369253</v>
       </c>
       <c r="E7">
-        <v>2.089543711676027</v>
+        <v>0.8592266714220522</v>
       </c>
       <c r="F7">
-        <v>2.361333900453824</v>
-      </c>
-      <c r="G7">
         <v>5.538958976801146E-09</v>
       </c>
     </row>
@@ -7866,15 +6976,12 @@
         <v>0.06230236883425581</v>
       </c>
       <c r="D8">
-        <v>3.550750522252841</v>
+        <v>1.121485123750128</v>
       </c>
       <c r="E8">
-        <v>3.069409272644613</v>
+        <v>1.431754988798639</v>
       </c>
       <c r="F8">
-        <v>4.186039201130996</v>
-      </c>
-      <c r="G8">
         <v>0.0001451939718700188</v>
       </c>
     </row>
@@ -7891,15 +6998,12 @@
         <v>0.06692043313646856</v>
       </c>
       <c r="D9">
-        <v>4.054480360017431</v>
+        <v>1.227733364020912</v>
       </c>
       <c r="E9">
-        <v>3.413483636214204</v>
+        <v>1.596033126429287</v>
       </c>
       <c r="F9">
-        <v>4.933423290168299</v>
-      </c>
-      <c r="G9">
         <v>5.084063525625201E-07</v>
       </c>
     </row>
@@ -7916,22 +7020,19 @@
         <v>0.03214457946757444</v>
       </c>
       <c r="D10">
-        <v>2.420379348653892</v>
+        <v>0.8299474550923829</v>
       </c>
       <c r="E10">
-        <v>2.293198241208673</v>
+        <v>0.9414115727599401</v>
       </c>
       <c r="F10">
-        <v>2.563597569995489</v>
-      </c>
-      <c r="G10">
         <v>0.0001245165619952326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qaut2</t>
+          <t>qautQ2</t>
         </is>
       </c>
       <c r="B11">
@@ -7941,22 +7042,19 @@
         <v>0.03254152960071303</v>
       </c>
       <c r="D11">
-        <v>2.137566314402912</v>
+        <v>0.71272404873606</v>
       </c>
       <c r="E11">
-        <v>2.03953950337768</v>
+        <v>0.8097038238579336</v>
       </c>
       <c r="F11">
-        <v>2.247242308545114</v>
-      </c>
-      <c r="G11">
         <v>3.360720362257771E-17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qaut3</t>
+          <t>qautQ3</t>
         </is>
       </c>
       <c r="B12">
@@ -7966,22 +7064,19 @@
         <v>0.03605472917905364</v>
       </c>
       <c r="D12">
-        <v>1.679278478519407</v>
+        <v>0.4829941471508868</v>
       </c>
       <c r="E12">
-        <v>1.62092041798168</v>
+        <v>0.5563244821975915</v>
       </c>
       <c r="F12">
-        <v>1.744249683175126</v>
-      </c>
-      <c r="G12">
         <v>3.732657286334422E-73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qaut4</t>
+          <t>qautQ4</t>
         </is>
       </c>
       <c r="B13">
@@ -7991,22 +7086,19 @@
         <v>0.03968050467121649</v>
       </c>
       <c r="D13">
-        <v>1.430006081722991</v>
+        <v>0.3309126154711323</v>
       </c>
       <c r="E13">
-        <v>1.392238126919643</v>
+        <v>0.3866097708602871</v>
       </c>
       <c r="F13">
-        <v>1.471981968925339</v>
-      </c>
-      <c r="G13">
         <v>8.288674014892365E-144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qaut5</t>
+          <t>qautQ5 Highest</t>
         </is>
       </c>
       <c r="B14">
@@ -8016,15 +7108,12 @@
         <v>0.05523992775087772</v>
       </c>
       <c r="D14">
-        <v>1.145947487920734</v>
+        <v>0.1222511898998615</v>
       </c>
       <c r="E14">
-        <v>1.130037920244686</v>
+        <v>0.1518112178233562</v>
       </c>
       <c r="F14">
-        <v>1.163940484471996</v>
-      </c>
-      <c r="G14">
         <v>6.876697787530464E-270</v>
       </c>
     </row>
@@ -8041,15 +7130,12 @@
         <v>0.03359701973147492</v>
       </c>
       <c r="D15">
-        <v>2.9489115719747</v>
+        <v>1.012511489390898</v>
       </c>
       <c r="E15">
-        <v>2.752505229138956</v>
+        <v>1.155052703080888</v>
       </c>
       <c r="F15">
-        <v>3.174190702748698</v>
-      </c>
-      <c r="G15">
         <v>0.01980984782929623</v>
       </c>
     </row>
@@ -8066,22 +7152,19 @@
         <v>0.03567096851840046</v>
       </c>
       <c r="D16">
-        <v>4.63794353339454</v>
+        <v>1.430657365759626</v>
       </c>
       <c r="E16">
-        <v>4.181447028759767</v>
+        <v>1.645388863971679</v>
       </c>
       <c r="F16">
-        <v>5.183025006812705</v>
-      </c>
-      <c r="G16">
         <v>5.64626052780836E-33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reg2</t>
+          <t>reg2 Región de Antofagasta</t>
         </is>
       </c>
       <c r="B17">
@@ -8091,22 +7174,19 @@
         <v>0.08029988400864463</v>
       </c>
       <c r="D17">
-        <v>2.208747535702118</v>
+        <v>0.6770172802583587</v>
       </c>
       <c r="E17">
-        <v>1.967998979844753</v>
+        <v>0.9275071637495209</v>
       </c>
       <c r="F17">
-        <v>2.528198929737828</v>
-      </c>
-      <c r="G17">
         <v>0.003770613182364776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reg3</t>
+          <t>reg3 Región de Atacama</t>
         </is>
       </c>
       <c r="B18">
@@ -8116,22 +7196,19 @@
         <v>0.08257829380063363</v>
       </c>
       <c r="D18">
-        <v>2.348624481893307</v>
+        <v>0.7262279659539361</v>
       </c>
       <c r="E18">
-        <v>2.067268076803077</v>
+        <v>1.003851975768068</v>
       </c>
       <c r="F18">
-        <v>2.728772776660369</v>
-      </c>
-      <c r="G18">
         <v>0.05569431155734034</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reg4</t>
+          <t>reg4 Región de Coquimbo</t>
         </is>
       </c>
       <c r="B19">
@@ -8141,22 +7218,19 @@
         <v>0.09011179387140651</v>
       </c>
       <c r="D19">
-        <v>2.763551669387964</v>
+        <v>0.8519280936042364</v>
       </c>
       <c r="E19">
-        <v>2.344162261724885</v>
+        <v>1.212903045665085</v>
       </c>
       <c r="F19">
-        <v>3.363234116354745</v>
-      </c>
-      <c r="G19">
         <v>0.8557477749890787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reg5</t>
+          <t>reg5 Región de Valparaíso</t>
         </is>
       </c>
       <c r="B20">
@@ -8166,22 +7240,19 @@
         <v>0.06714887807413776</v>
       </c>
       <c r="D20">
-        <v>2.443735860826126</v>
+        <v>0.7833299849662857</v>
       </c>
       <c r="E20">
-        <v>2.188748643737896</v>
+        <v>1.019228458797033</v>
       </c>
       <c r="F20">
-        <v>2.771055955135715</v>
-      </c>
-      <c r="G20">
         <v>0.093660695571142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reg6</t>
+          <t>reg6 Región del Libertador Gral. Bernardo O'Higgins</t>
         </is>
       </c>
       <c r="B21">
@@ -8191,22 +7262,19 @@
         <v>0.07103242298286307</v>
       </c>
       <c r="D21">
-        <v>3.073525370525322</v>
+        <v>0.9768834055222932</v>
       </c>
       <c r="E21">
-        <v>2.656165139033545</v>
+        <v>1.290570086811393</v>
       </c>
       <c r="F21">
-        <v>3.634858149894994</v>
-      </c>
-      <c r="G21">
         <v>0.1029357484012281</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reg7</t>
+          <t>reg7 Región del Maule</t>
         </is>
       </c>
       <c r="B22">
@@ -8216,22 +7284,19 @@
         <v>0.07245392789565626</v>
       </c>
       <c r="D22">
-        <v>2.269541300084383</v>
+        <v>0.7110671339570651</v>
       </c>
       <c r="E22">
-        <v>2.036162958328374</v>
+        <v>0.9446473347644335</v>
       </c>
       <c r="F22">
-        <v>2.571906196727253</v>
-      </c>
-      <c r="G22">
         <v>0.006040374729452402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reg8</t>
+          <t>reg8 Región del Biobío</t>
         </is>
       </c>
       <c r="B23">
@@ -8241,22 +7306,19 @@
         <v>0.06724033175821338</v>
       </c>
       <c r="D23">
-        <v>2.104920502347497</v>
+        <v>0.6523696645695268</v>
       </c>
       <c r="E23">
-        <v>1.920085400676521</v>
+        <v>0.8491340497146457</v>
       </c>
       <c r="F23">
-        <v>2.337621711029156</v>
-      </c>
-      <c r="G23">
         <v>1.131756835481147E-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reg9</t>
+          <t>reg9 Región de La Araucanía</t>
         </is>
       </c>
       <c r="B24">
@@ -8266,22 +7328,19 @@
         <v>0.07138628871610102</v>
       </c>
       <c r="D24">
-        <v>2.224027803042714</v>
+        <v>0.6949442060894352</v>
       </c>
       <c r="E24">
-        <v>2.003597282294981</v>
+        <v>0.9193720319605951</v>
       </c>
       <c r="F24">
-        <v>2.50771513042791</v>
-      </c>
-      <c r="G24">
         <v>0.001706765622124694</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reg10</t>
+          <t>reg10 Región de Los Lagos</t>
         </is>
       </c>
       <c r="B25">
@@ -8291,22 +7350,19 @@
         <v>0.07665743322538635</v>
       </c>
       <c r="D25">
-        <v>1.960995174579704</v>
+        <v>0.5794937250114244</v>
       </c>
       <c r="E25">
-        <v>1.785134433018979</v>
+        <v>0.7826447349811119</v>
       </c>
       <c r="F25">
-        <v>2.187249317527526</v>
-      </c>
-      <c r="G25">
         <v>2.549306427325015E-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reg11</t>
+          <t>reg11 Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="B26">
@@ -8316,22 +7372,19 @@
         <v>0.1086800293939125</v>
       </c>
       <c r="D26">
-        <v>1.888058452008118</v>
+        <v>0.5136064498461542</v>
       </c>
       <c r="E26">
-        <v>1.671307826939198</v>
+        <v>0.7864437174302898</v>
       </c>
       <c r="F26">
-        <v>2.195574442786629</v>
-      </c>
-      <c r="G26">
         <v>3.060207413863276E-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reg12</t>
+          <t>reg12 Región de Magallanes y de la Antártica Chilena</t>
         </is>
       </c>
       <c r="B27">
@@ -8341,22 +7394,19 @@
         <v>0.1012744379185747</v>
       </c>
       <c r="D27">
-        <v>1.503599367762668</v>
+        <v>0.3344250389557333</v>
       </c>
       <c r="E27">
-        <v>1.397136854980186</v>
+        <v>0.4974246497547904</v>
       </c>
       <c r="F27">
-        <v>1.644480698794071</v>
-      </c>
-      <c r="G27">
         <v>9.588980895955034E-19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reg13</t>
+          <t>reg13 Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="B28">
@@ -8366,22 +7416,19 @@
         <v>0.06354734367006046</v>
       </c>
       <c r="D28">
-        <v>2.484021940165365</v>
+        <v>0.8033156118478437</v>
       </c>
       <c r="E28">
-        <v>2.232932204893444</v>
+        <v>1.030578487823195</v>
       </c>
       <c r="F28">
-        <v>2.802686685952577</v>
-      </c>
-      <c r="G28">
         <v>0.1372560022634546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reg14</t>
+          <t>reg14 Región de Los Ríos</t>
         </is>
       </c>
       <c r="B29">
@@ -8391,22 +7438,19 @@
         <v>0.07256456241219129</v>
       </c>
       <c r="D29">
-        <v>2.133776766246097</v>
+        <v>0.6574072262050602</v>
       </c>
       <c r="E29">
-        <v>1.929782353219328</v>
+        <v>0.8737394326976865</v>
       </c>
       <c r="F29">
-        <v>2.395853255350904</v>
-      </c>
-      <c r="G29">
         <v>0.000134053394412936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>reg15</t>
+          <t>reg15 Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="B30">
@@ -8416,22 +7460,19 @@
         <v>0.08408562865276785</v>
       </c>
       <c r="D30">
-        <v>1.881749026859438</v>
+        <v>0.5361349327400633</v>
       </c>
       <c r="E30">
-        <v>1.709387181240853</v>
+        <v>0.745482036308492</v>
       </c>
       <c r="F30">
-        <v>2.107457060998742</v>
-      </c>
-      <c r="G30">
         <v>5.048267809149478E-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>reg16</t>
+          <t>reg16 Región de Ñuble</t>
         </is>
       </c>
       <c r="B31">
@@ -8441,15 +7482,12 @@
         <v>0.07571478546767904</v>
       </c>
       <c r="D31">
-        <v>1.828567943849009</v>
+        <v>0.5202901567317392</v>
       </c>
       <c r="E31">
-        <v>1.682515772157002</v>
+        <v>0.7000943946180728</v>
       </c>
       <c r="F31">
-        <v>2.013942803860088</v>
-      </c>
-      <c r="G31">
         <v>2.693531978628733E-11</v>
       </c>
     </row>

--- a/Output/Logit_models_svy.xlsx
+++ b/Output/Logit_models_svy.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="svy_food_insecurity_binary_~" sheetId="1" r:id="rId1"/>
-    <sheet name="svy_food_insecurity_binary_~_1" sheetId="2" r:id="rId2"/>
-    <sheet name="svy_food_insecurity_binary_~_2" sheetId="3" r:id="rId3"/>
-    <sheet name="svy_food_insecurity_binary_~_3" sheetId="4" r:id="rId4"/>
-    <sheet name="svy_food_insecurity_binary_~_4" sheetId="5" r:id="rId5"/>
-    <sheet name="svy_food_ins1_~_ind_overcrow" sheetId="6" r:id="rId6"/>
-    <sheet name="svy_food_ins1_~_overcrowded" sheetId="7" r:id="rId7"/>
-    <sheet name="svy_food_ins1_~_ind_overcrow_1" sheetId="8" r:id="rId8"/>
-    <sheet name="svy_food_ins1_~_overcrowding" sheetId="9" r:id="rId9"/>
-    <sheet name="svy_food_ins1_~_overcrowding_1" sheetId="10" r:id="rId10"/>
+    <sheet name="svy_food_insecurity_binary__" sheetId="1" r:id="rId1"/>
+    <sheet name="svy_food_insecurity_binary___1" sheetId="2" r:id="rId2"/>
+    <sheet name="svy_food_insecurity_binary___2" sheetId="3" r:id="rId3"/>
+    <sheet name="svy_food_insecurity_binary___3" sheetId="4" r:id="rId4"/>
+    <sheet name="svy_food_insecurity_binary___4" sheetId="5" r:id="rId5"/>
+    <sheet name="svy_food_ins1__ind_overcrowd" sheetId="6" r:id="rId6"/>
+    <sheet name="svy_food_ins1__overcrowded" sheetId="7" r:id="rId7"/>
+    <sheet name="svy_food_ins1__ind_overcrowd_1" sheetId="8" r:id="rId8"/>
+    <sheet name="svy_food_ins1__overcrowding" sheetId="9" r:id="rId9"/>
+    <sheet name="svy_food_ins1__overcrowding_" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
